--- a/Data/2021_06_18.xlsx
+++ b/Data/2021_06_18.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2021-06-17 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2021-06-18 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,196 +301,172 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">149</t>
   </si>
   <si>
-    <t xml:space="preserve">219</t>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
   </si>
   <si>
     <t xml:space="preserve">126</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">975</t>
+    <t xml:space="preserve">283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">899</t>
   </si>
 </sst>
 </file>
@@ -1567,10 +1543,10 @@
         <v>14202</v>
       </c>
       <c r="D39" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E39" t="n">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1593,7 +1569,7 @@
         <v>210</v>
       </c>
       <c r="E40" t="n">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="F40" t="n">
         <v>32</v>
@@ -1616,7 +1592,7 @@
         <v>123</v>
       </c>
       <c r="E41" t="n">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="F41" t="n">
         <v>57</v>
@@ -1639,7 +1615,7 @@
         <v>122</v>
       </c>
       <c r="E42" t="n">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="F42" t="n">
         <v>46</v>
@@ -1662,7 +1638,7 @@
         <v>166</v>
       </c>
       <c r="E43" t="n">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="F43" t="n">
         <v>58</v>
@@ -1685,7 +1661,7 @@
         <v>126</v>
       </c>
       <c r="E44" t="n">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="F44" t="n">
         <v>44</v>
@@ -1708,7 +1684,7 @@
         <v>97</v>
       </c>
       <c r="E45" t="n">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="F45" t="n">
         <v>58</v>
@@ -1731,7 +1707,7 @@
         <v>96</v>
       </c>
       <c r="E46" t="n">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="F46" t="n">
         <v>61</v>
@@ -1754,7 +1730,7 @@
         <v>75</v>
       </c>
       <c r="E47" t="n">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="F47" t="n">
         <v>57</v>
@@ -1777,7 +1753,7 @@
         <v>58</v>
       </c>
       <c r="E48" t="n">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="F48" t="n">
         <v>56</v>
@@ -1800,7 +1776,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="n">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="F49" t="n">
         <v>51</v>
@@ -1823,7 +1799,7 @@
         <v>71</v>
       </c>
       <c r="E50" t="n">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="F50" t="n">
         <v>50</v>
@@ -1846,7 +1822,7 @@
         <v>57</v>
       </c>
       <c r="E51" t="n">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="F51" t="n">
         <v>57</v>
@@ -1869,7 +1845,7 @@
         <v>59</v>
       </c>
       <c r="E52" t="n">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="F52" t="n">
         <v>58</v>
@@ -1892,7 +1868,7 @@
         <v>58</v>
       </c>
       <c r="E53" t="n">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="F53" t="n">
         <v>45</v>
@@ -1915,7 +1891,7 @@
         <v>41</v>
       </c>
       <c r="E54" t="n">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="F54" t="n">
         <v>52</v>
@@ -1938,7 +1914,7 @@
         <v>45</v>
       </c>
       <c r="E55" t="n">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="F55" t="n">
         <v>45</v>
@@ -1961,7 +1937,7 @@
         <v>33</v>
       </c>
       <c r="E56" t="n">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="F56" t="n">
         <v>36</v>
@@ -1984,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="E57" t="n">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="F57" t="n">
         <v>36</v>
@@ -2007,7 +1983,7 @@
         <v>52</v>
       </c>
       <c r="E58" t="n">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="F58" t="n">
         <v>37</v>
@@ -2030,7 +2006,7 @@
         <v>32</v>
       </c>
       <c r="E59" t="n">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="F59" t="n">
         <v>38</v>
@@ -2053,7 +2029,7 @@
         <v>38</v>
       </c>
       <c r="E60" t="n">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="F60" t="n">
         <v>38</v>
@@ -2076,7 +2052,7 @@
         <v>32</v>
       </c>
       <c r="E61" t="n">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="F61" t="n">
         <v>36</v>
@@ -2099,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="F62" t="n">
         <v>34</v>
@@ -2122,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="E63" t="n">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="F63" t="n">
         <v>22</v>
@@ -2145,7 +2121,7 @@
         <v>23</v>
       </c>
       <c r="E64" t="n">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="F64" t="n">
         <v>38</v>
@@ -2168,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="E65" t="n">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="F65" t="n">
         <v>33</v>
@@ -2191,7 +2167,7 @@
         <v>21</v>
       </c>
       <c r="E66" t="n">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="F66" t="n">
         <v>27</v>
@@ -2214,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="F67" t="n">
         <v>31</v>
@@ -2237,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="F68" t="n">
         <v>27</v>
@@ -2260,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="F69" t="n">
         <v>25</v>
@@ -2283,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="F70" t="n">
         <v>13</v>
@@ -2306,7 +2282,7 @@
         <v>13</v>
       </c>
       <c r="E71" t="n">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="F71" t="n">
         <v>23</v>
@@ -2329,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="F72" t="n">
         <v>12</v>
@@ -2352,7 +2328,7 @@
         <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="F73" t="n">
         <v>11</v>
@@ -2375,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="F74" t="n">
         <v>15</v>
@@ -2398,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="F75" t="n">
         <v>12</v>
@@ -2421,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -2444,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="F77" t="n">
         <v>8</v>
@@ -2467,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -2490,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="F79" t="n">
         <v>10</v>
@@ -2513,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="F80" t="n">
         <v>4</v>
@@ -2536,7 +2512,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="F81" t="n">
         <v>12</v>
@@ -2559,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="F82" t="n">
         <v>7</v>
@@ -2582,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="F83" t="n">
         <v>5</v>
@@ -2605,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="F84" t="n">
         <v>7</v>
@@ -2628,7 +2604,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="F85" t="n">
         <v>3</v>
@@ -2651,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -2674,7 +2650,7 @@
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -2697,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="F88" t="n">
         <v>2</v>
@@ -2720,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="F89" t="n">
         <v>5</v>
@@ -2743,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -2766,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>3991</v>
+        <v>3992</v>
       </c>
       <c r="F91" t="n">
         <v>5</v>
@@ -2789,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="F92" t="n">
         <v>3</v>
@@ -2812,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="F93" t="n">
         <v>4</v>
@@ -2835,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -2858,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="F95" t="n">
         <v>5</v>
@@ -2881,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -2904,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -2927,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -2950,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="F99" t="n">
         <v>2</v>
@@ -2973,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="F100" t="n">
         <v>2</v>
@@ -2996,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3019,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3042,7 +3018,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3065,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3088,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3111,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -3134,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3157,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3180,7 +3156,7 @@
         <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3203,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3226,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -3249,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3272,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -3295,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3318,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -3341,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3364,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -3387,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -3410,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3433,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3456,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -3479,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -3502,7 +3478,7 @@
         <v>3</v>
       </c>
       <c r="E123" t="n">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -3525,7 +3501,7 @@
         <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -3548,7 +3524,7 @@
         <v>6</v>
       </c>
       <c r="E125" t="n">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -3571,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -3594,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -3617,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -3640,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -3663,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -3686,7 +3662,7 @@
         <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -3709,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -3732,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -3755,7 +3731,7 @@
         <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -3778,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -3801,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="E136" t="n">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -3824,7 +3800,7 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>4095</v>
+        <v>4096</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -3847,7 +3823,7 @@
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -3870,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -3893,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="E140" t="n">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -3916,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -3939,7 +3915,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="n">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -3962,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="F143" t="n">
         <v>2</v>
@@ -3985,7 +3961,7 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4008,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -4031,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4054,7 +4030,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4077,7 +4053,7 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -4100,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4123,7 +4099,7 @@
         <v>8</v>
       </c>
       <c r="E150" t="n">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -4146,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4169,7 +4145,7 @@
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -4192,7 +4168,7 @@
         <v>6</v>
       </c>
       <c r="E153" t="n">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4215,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4238,7 +4214,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -4261,7 +4237,7 @@
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -4284,7 +4260,7 @@
         <v>8</v>
       </c>
       <c r="E157" t="n">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4307,7 +4283,7 @@
         <v>8</v>
       </c>
       <c r="E158" t="n">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4330,7 +4306,7 @@
         <v>15</v>
       </c>
       <c r="E159" t="n">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -4353,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -4376,7 +4352,7 @@
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4258</v>
+        <v>4259</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -4399,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="E162" t="n">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -4422,7 +4398,7 @@
         <v>13</v>
       </c>
       <c r="E163" t="n">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -4445,7 +4421,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4468,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="E165" t="n">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -4491,7 +4467,7 @@
         <v>9</v>
       </c>
       <c r="E166" t="n">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
@@ -4514,7 +4490,7 @@
         <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -4537,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="E168" t="n">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4560,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4583,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4327</v>
+        <v>4328</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -4606,7 +4582,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -4629,7 +4605,7 @@
         <v>13</v>
       </c>
       <c r="E172" t="n">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4652,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -4675,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="n">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -4698,7 +4674,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4721,7 +4697,7 @@
         <v>9</v>
       </c>
       <c r="E176" t="n">
-        <v>4378</v>
+        <v>4379</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -4744,7 +4720,7 @@
         <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4767,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4790,7 +4766,7 @@
         <v>10</v>
       </c>
       <c r="E179" t="n">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4813,7 +4789,7 @@
         <v>9</v>
       </c>
       <c r="E180" t="n">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4836,7 +4812,7 @@
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4416</v>
+        <v>4417</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -4859,7 +4835,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4882,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="E183" t="n">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -4905,7 +4881,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4928,7 +4904,7 @@
         <v>7</v>
       </c>
       <c r="E185" t="n">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4951,7 +4927,7 @@
         <v>8</v>
       </c>
       <c r="E186" t="n">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4974,7 +4950,7 @@
         <v>9</v>
       </c>
       <c r="E187" t="n">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -4997,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="E188" t="n">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -5020,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -5043,7 +5019,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5066,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5089,7 +5065,7 @@
         <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5112,7 +5088,7 @@
         <v>6</v>
       </c>
       <c r="E193" t="n">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5135,7 +5111,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5158,7 +5134,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5181,7 +5157,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5204,7 +5180,7 @@
         <v>9</v>
       </c>
       <c r="E197" t="n">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -5227,7 +5203,7 @@
         <v>11</v>
       </c>
       <c r="E198" t="n">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -5250,7 +5226,7 @@
         <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -5273,7 +5249,7 @@
         <v>12</v>
       </c>
       <c r="E200" t="n">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5296,7 +5272,7 @@
         <v>13</v>
       </c>
       <c r="E201" t="n">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5319,7 +5295,7 @@
         <v>9</v>
       </c>
       <c r="E202" t="n">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -5342,7 +5318,7 @@
         <v>8</v>
       </c>
       <c r="E203" t="n">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -5365,7 +5341,7 @@
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5388,7 +5364,7 @@
         <v>8</v>
       </c>
       <c r="E205" t="n">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -5411,7 +5387,7 @@
         <v>15</v>
       </c>
       <c r="E206" t="n">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
@@ -5434,7 +5410,7 @@
         <v>23</v>
       </c>
       <c r="E207" t="n">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5457,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="E208" t="n">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -5480,7 +5456,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="F209" t="n">
         <v>4</v>
@@ -5503,7 +5479,7 @@
         <v>12</v>
       </c>
       <c r="E210" t="n">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5526,7 +5502,7 @@
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5549,7 +5525,7 @@
         <v>11</v>
       </c>
       <c r="E212" t="n">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
@@ -5572,7 +5548,7 @@
         <v>22</v>
       </c>
       <c r="E213" t="n">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5595,7 +5571,7 @@
         <v>15</v>
       </c>
       <c r="E214" t="n">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5618,7 +5594,7 @@
         <v>24</v>
       </c>
       <c r="E215" t="n">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5641,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="E216" t="n">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5664,7 +5640,7 @@
         <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4798</v>
+        <v>4799</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5687,7 +5663,7 @@
         <v>22</v>
       </c>
       <c r="E218" t="n">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5710,7 +5686,7 @@
         <v>10</v>
       </c>
       <c r="E219" t="n">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5733,7 +5709,7 @@
         <v>17</v>
       </c>
       <c r="E220" t="n">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5756,7 +5732,7 @@
         <v>20</v>
       </c>
       <c r="E221" t="n">
-        <v>4867</v>
+        <v>4868</v>
       </c>
       <c r="F221" t="n">
         <v>4</v>
@@ -5779,7 +5755,7 @@
         <v>14</v>
       </c>
       <c r="E222" t="n">
-        <v>4881</v>
+        <v>4882</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5802,7 +5778,7 @@
         <v>8</v>
       </c>
       <c r="E223" t="n">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5825,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="E224" t="n">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5848,7 +5824,7 @@
         <v>20</v>
       </c>
       <c r="E225" t="n">
-        <v>4929</v>
+        <v>4930</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5871,7 +5847,7 @@
         <v>30</v>
       </c>
       <c r="E226" t="n">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5894,7 +5870,7 @@
         <v>25</v>
       </c>
       <c r="E227" t="n">
-        <v>4984</v>
+        <v>4985</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5917,7 +5893,7 @@
         <v>22</v>
       </c>
       <c r="E228" t="n">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="F228" t="n">
         <v>5</v>
@@ -5940,7 +5916,7 @@
         <v>29</v>
       </c>
       <c r="E229" t="n">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="F229" t="n">
         <v>1</v>
@@ -5963,7 +5939,7 @@
         <v>20</v>
       </c>
       <c r="E230" t="n">
-        <v>5055</v>
+        <v>5056</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -5986,7 +5962,7 @@
         <v>16</v>
       </c>
       <c r="E231" t="n">
-        <v>5071</v>
+        <v>5072</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -6009,7 +5985,7 @@
         <v>23</v>
       </c>
       <c r="E232" t="n">
-        <v>5094</v>
+        <v>5095</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -6032,7 +6008,7 @@
         <v>37</v>
       </c>
       <c r="E233" t="n">
-        <v>5131</v>
+        <v>5132</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -6055,7 +6031,7 @@
         <v>36</v>
       </c>
       <c r="E234" t="n">
-        <v>5167</v>
+        <v>5168</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -6069,16 +6045,16 @@
         <v>44112</v>
       </c>
       <c r="B235" t="n">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C235" t="n">
-        <v>61254</v>
+        <v>61255</v>
       </c>
       <c r="D235" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E235" t="n">
-        <v>5223</v>
+        <v>5225</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
@@ -6095,13 +6071,13 @@
         <v>1728</v>
       </c>
       <c r="C236" t="n">
-        <v>62982</v>
+        <v>62983</v>
       </c>
       <c r="D236" t="n">
         <v>48</v>
       </c>
       <c r="E236" t="n">
-        <v>5271</v>
+        <v>5273</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
@@ -6115,16 +6091,16 @@
         <v>44114</v>
       </c>
       <c r="B237" t="n">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C237" t="n">
-        <v>64238</v>
+        <v>64240</v>
       </c>
       <c r="D237" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E237" t="n">
-        <v>5304</v>
+        <v>5307</v>
       </c>
       <c r="F237" t="n">
         <v>4</v>
@@ -6141,13 +6117,13 @@
         <v>812</v>
       </c>
       <c r="C238" t="n">
-        <v>65050</v>
+        <v>65052</v>
       </c>
       <c r="D238" t="n">
         <v>46</v>
       </c>
       <c r="E238" t="n">
-        <v>5350</v>
+        <v>5353</v>
       </c>
       <c r="F238" t="n">
         <v>4</v>
@@ -6164,13 +6140,13 @@
         <v>2571</v>
       </c>
       <c r="C239" t="n">
-        <v>67621</v>
+        <v>67623</v>
       </c>
       <c r="D239" t="n">
         <v>83</v>
       </c>
       <c r="E239" t="n">
-        <v>5433</v>
+        <v>5436</v>
       </c>
       <c r="F239" t="n">
         <v>6</v>
@@ -6187,13 +6163,13 @@
         <v>2700</v>
       </c>
       <c r="C240" t="n">
-        <v>70321</v>
+        <v>70323</v>
       </c>
       <c r="D240" t="n">
         <v>68</v>
       </c>
       <c r="E240" t="n">
-        <v>5501</v>
+        <v>5504</v>
       </c>
       <c r="F240" t="n">
         <v>6</v>
@@ -6210,13 +6186,13 @@
         <v>3007</v>
       </c>
       <c r="C241" t="n">
-        <v>73328</v>
+        <v>73330</v>
       </c>
       <c r="D241" t="n">
         <v>90</v>
       </c>
       <c r="E241" t="n">
-        <v>5591</v>
+        <v>5594</v>
       </c>
       <c r="F241" t="n">
         <v>5</v>
@@ -6233,13 +6209,13 @@
         <v>3410</v>
       </c>
       <c r="C242" t="n">
-        <v>76738</v>
+        <v>76740</v>
       </c>
       <c r="D242" t="n">
         <v>97</v>
       </c>
       <c r="E242" t="n">
-        <v>5688</v>
+        <v>5691</v>
       </c>
       <c r="F242" t="n">
         <v>6</v>
@@ -6256,13 +6232,13 @@
         <v>3698</v>
       </c>
       <c r="C243" t="n">
-        <v>80436</v>
+        <v>80438</v>
       </c>
       <c r="D243" t="n">
         <v>109</v>
       </c>
       <c r="E243" t="n">
-        <v>5797</v>
+        <v>5800</v>
       </c>
       <c r="F243" t="n">
         <v>10</v>
@@ -6279,13 +6255,13 @@
         <v>2385</v>
       </c>
       <c r="C244" t="n">
-        <v>82821</v>
+        <v>82823</v>
       </c>
       <c r="D244" t="n">
         <v>113</v>
       </c>
       <c r="E244" t="n">
-        <v>5910</v>
+        <v>5913</v>
       </c>
       <c r="F244" t="n">
         <v>7</v>
@@ -6302,13 +6278,13 @@
         <v>1788</v>
       </c>
       <c r="C245" t="n">
-        <v>84609</v>
+        <v>84611</v>
       </c>
       <c r="D245" t="n">
         <v>70</v>
       </c>
       <c r="E245" t="n">
-        <v>5980</v>
+        <v>5983</v>
       </c>
       <c r="F245" t="n">
         <v>8</v>
@@ -6325,13 +6301,13 @@
         <v>5427</v>
       </c>
       <c r="C246" t="n">
-        <v>90036</v>
+        <v>90038</v>
       </c>
       <c r="D246" t="n">
         <v>159</v>
       </c>
       <c r="E246" t="n">
-        <v>6139</v>
+        <v>6142</v>
       </c>
       <c r="F246" t="n">
         <v>16</v>
@@ -6348,13 +6324,13 @@
         <v>5708</v>
       </c>
       <c r="C247" t="n">
-        <v>95744</v>
+        <v>95746</v>
       </c>
       <c r="D247" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E247" t="n">
-        <v>6295</v>
+        <v>6299</v>
       </c>
       <c r="F247" t="n">
         <v>12</v>
@@ -6371,13 +6347,13 @@
         <v>6488</v>
       </c>
       <c r="C248" t="n">
-        <v>102232</v>
+        <v>102234</v>
       </c>
       <c r="D248" t="n">
         <v>142</v>
       </c>
       <c r="E248" t="n">
-        <v>6437</v>
+        <v>6441</v>
       </c>
       <c r="F248" t="n">
         <v>18</v>
@@ -6394,13 +6370,13 @@
         <v>6797</v>
       </c>
       <c r="C249" t="n">
-        <v>109029</v>
+        <v>109031</v>
       </c>
       <c r="D249" t="n">
         <v>168</v>
       </c>
       <c r="E249" t="n">
-        <v>6605</v>
+        <v>6609</v>
       </c>
       <c r="F249" t="n">
         <v>25</v>
@@ -6417,13 +6393,13 @@
         <v>7527</v>
       </c>
       <c r="C250" t="n">
-        <v>116556</v>
+        <v>116558</v>
       </c>
       <c r="D250" t="n">
         <v>203</v>
       </c>
       <c r="E250" t="n">
-        <v>6808</v>
+        <v>6812</v>
       </c>
       <c r="F250" t="n">
         <v>26</v>
@@ -6440,13 +6416,13 @@
         <v>4699</v>
       </c>
       <c r="C251" t="n">
-        <v>121255</v>
+        <v>121257</v>
       </c>
       <c r="D251" t="n">
         <v>169</v>
       </c>
       <c r="E251" t="n">
-        <v>6977</v>
+        <v>6981</v>
       </c>
       <c r="F251" t="n">
         <v>26</v>
@@ -6463,13 +6439,13 @@
         <v>3231</v>
       </c>
       <c r="C252" t="n">
-        <v>124486</v>
+        <v>124488</v>
       </c>
       <c r="D252" t="n">
         <v>190</v>
       </c>
       <c r="E252" t="n">
-        <v>7167</v>
+        <v>7171</v>
       </c>
       <c r="F252" t="n">
         <v>23</v>
@@ -6486,13 +6462,13 @@
         <v>10156</v>
       </c>
       <c r="C253" t="n">
-        <v>134642</v>
+        <v>134644</v>
       </c>
       <c r="D253" t="n">
         <v>240</v>
       </c>
       <c r="E253" t="n">
-        <v>7407</v>
+        <v>7411</v>
       </c>
       <c r="F253" t="n">
         <v>20</v>
@@ -6509,13 +6485,13 @@
         <v>9769</v>
       </c>
       <c r="C254" t="n">
-        <v>144411</v>
+        <v>144413</v>
       </c>
       <c r="D254" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E254" t="n">
-        <v>7614</v>
+        <v>7619</v>
       </c>
       <c r="F254" t="n">
         <v>41</v>
@@ -6532,13 +6508,13 @@
         <v>9316</v>
       </c>
       <c r="C255" t="n">
-        <v>153727</v>
+        <v>153729</v>
       </c>
       <c r="D255" t="n">
         <v>246</v>
       </c>
       <c r="E255" t="n">
-        <v>7860</v>
+        <v>7865</v>
       </c>
       <c r="F255" t="n">
         <v>43</v>
@@ -6555,13 +6531,13 @@
         <v>9001</v>
       </c>
       <c r="C256" t="n">
-        <v>162728</v>
+        <v>162730</v>
       </c>
       <c r="D256" t="n">
         <v>232</v>
       </c>
       <c r="E256" t="n">
-        <v>8092</v>
+        <v>8097</v>
       </c>
       <c r="F256" t="n">
         <v>58</v>
@@ -6578,13 +6554,13 @@
         <v>8971</v>
       </c>
       <c r="C257" t="n">
-        <v>171699</v>
+        <v>171701</v>
       </c>
       <c r="D257" t="n">
         <v>292</v>
       </c>
       <c r="E257" t="n">
-        <v>8384</v>
+        <v>8389</v>
       </c>
       <c r="F257" t="n">
         <v>42</v>
@@ -6601,13 +6577,13 @@
         <v>5154</v>
       </c>
       <c r="C258" t="n">
-        <v>176853</v>
+        <v>176855</v>
       </c>
       <c r="D258" t="n">
         <v>164</v>
       </c>
       <c r="E258" t="n">
-        <v>8548</v>
+        <v>8553</v>
       </c>
       <c r="F258" t="n">
         <v>60</v>
@@ -6624,13 +6600,13 @@
         <v>3648</v>
       </c>
       <c r="C259" t="n">
-        <v>180501</v>
+        <v>180503</v>
       </c>
       <c r="D259" t="n">
         <v>206</v>
       </c>
       <c r="E259" t="n">
-        <v>8754</v>
+        <v>8759</v>
       </c>
       <c r="F259" t="n">
         <v>61</v>
@@ -6647,13 +6623,13 @@
         <v>10559</v>
       </c>
       <c r="C260" t="n">
-        <v>191060</v>
+        <v>191062</v>
       </c>
       <c r="D260" t="n">
         <v>295</v>
       </c>
       <c r="E260" t="n">
-        <v>9049</v>
+        <v>9054</v>
       </c>
       <c r="F260" t="n">
         <v>60</v>
@@ -6670,13 +6646,13 @@
         <v>9632</v>
       </c>
       <c r="C261" t="n">
-        <v>200692</v>
+        <v>200694</v>
       </c>
       <c r="D261" t="n">
         <v>261</v>
       </c>
       <c r="E261" t="n">
-        <v>9310</v>
+        <v>9315</v>
       </c>
       <c r="F261" t="n">
         <v>80</v>
@@ -6690,16 +6666,16 @@
         <v>44139</v>
       </c>
       <c r="B262" t="n">
-        <v>8748</v>
+        <v>8747</v>
       </c>
       <c r="C262" t="n">
-        <v>209440</v>
+        <v>209441</v>
       </c>
       <c r="D262" t="n">
         <v>211</v>
       </c>
       <c r="E262" t="n">
-        <v>9521</v>
+        <v>9526</v>
       </c>
       <c r="F262" t="n">
         <v>83</v>
@@ -6716,13 +6692,13 @@
         <v>7867</v>
       </c>
       <c r="C263" t="n">
-        <v>217307</v>
+        <v>217308</v>
       </c>
       <c r="D263" t="n">
         <v>214</v>
       </c>
       <c r="E263" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="F263" t="n">
         <v>80</v>
@@ -6739,13 +6715,13 @@
         <v>7398</v>
       </c>
       <c r="C264" t="n">
-        <v>224705</v>
+        <v>224706</v>
       </c>
       <c r="D264" t="n">
         <v>262</v>
       </c>
       <c r="E264" t="n">
-        <v>9997</v>
+        <v>10002</v>
       </c>
       <c r="F264" t="n">
         <v>94</v>
@@ -6762,13 +6738,13 @@
         <v>4203</v>
       </c>
       <c r="C265" t="n">
-        <v>228908</v>
+        <v>228909</v>
       </c>
       <c r="D265" t="n">
         <v>218</v>
       </c>
       <c r="E265" t="n">
-        <v>10215</v>
+        <v>10220</v>
       </c>
       <c r="F265" t="n">
         <v>70</v>
@@ -6785,13 +6761,13 @@
         <v>3001</v>
       </c>
       <c r="C266" t="n">
-        <v>231909</v>
+        <v>231910</v>
       </c>
       <c r="D266" t="n">
         <v>169</v>
       </c>
       <c r="E266" t="n">
-        <v>10384</v>
+        <v>10389</v>
       </c>
       <c r="F266" t="n">
         <v>89</v>
@@ -6808,13 +6784,13 @@
         <v>8732</v>
       </c>
       <c r="C267" t="n">
-        <v>240641</v>
+        <v>240642</v>
       </c>
       <c r="D267" t="n">
         <v>281</v>
       </c>
       <c r="E267" t="n">
-        <v>10665</v>
+        <v>10670</v>
       </c>
       <c r="F267" t="n">
         <v>86</v>
@@ -6831,13 +6807,13 @@
         <v>7421</v>
       </c>
       <c r="C268" t="n">
-        <v>248062</v>
+        <v>248063</v>
       </c>
       <c r="D268" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E268" t="n">
-        <v>10875</v>
+        <v>10881</v>
       </c>
       <c r="F268" t="n">
         <v>86</v>
@@ -6854,13 +6830,13 @@
         <v>6380</v>
       </c>
       <c r="C269" t="n">
-        <v>254442</v>
+        <v>254443</v>
       </c>
       <c r="D269" t="n">
         <v>225</v>
       </c>
       <c r="E269" t="n">
-        <v>11100</v>
+        <v>11106</v>
       </c>
       <c r="F269" t="n">
         <v>91</v>
@@ -6877,13 +6853,13 @@
         <v>5981</v>
       </c>
       <c r="C270" t="n">
-        <v>260423</v>
+        <v>260424</v>
       </c>
       <c r="D270" t="n">
         <v>215</v>
       </c>
       <c r="E270" t="n">
-        <v>11315</v>
+        <v>11321</v>
       </c>
       <c r="F270" t="n">
         <v>108</v>
@@ -6900,13 +6876,13 @@
         <v>5705</v>
       </c>
       <c r="C271" t="n">
-        <v>266128</v>
+        <v>266129</v>
       </c>
       <c r="D271" t="n">
         <v>232</v>
       </c>
       <c r="E271" t="n">
-        <v>11547</v>
+        <v>11553</v>
       </c>
       <c r="F271" t="n">
         <v>87</v>
@@ -6923,13 +6899,13 @@
         <v>3222</v>
       </c>
       <c r="C272" t="n">
-        <v>269350</v>
+        <v>269351</v>
       </c>
       <c r="D272" t="n">
         <v>176</v>
       </c>
       <c r="E272" t="n">
-        <v>11723</v>
+        <v>11729</v>
       </c>
       <c r="F272" t="n">
         <v>78</v>
@@ -6946,13 +6922,13 @@
         <v>2325</v>
       </c>
       <c r="C273" t="n">
-        <v>271675</v>
+        <v>271676</v>
       </c>
       <c r="D273" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E273" t="n">
-        <v>11864</v>
+        <v>11871</v>
       </c>
       <c r="F273" t="n">
         <v>86</v>
@@ -6969,13 +6945,13 @@
         <v>6607</v>
       </c>
       <c r="C274" t="n">
-        <v>278282</v>
+        <v>278283</v>
       </c>
       <c r="D274" t="n">
         <v>269</v>
       </c>
       <c r="E274" t="n">
-        <v>12133</v>
+        <v>12140</v>
       </c>
       <c r="F274" t="n">
         <v>96</v>
@@ -6992,13 +6968,13 @@
         <v>5453</v>
       </c>
       <c r="C275" t="n">
-        <v>283735</v>
+        <v>283736</v>
       </c>
       <c r="D275" t="n">
         <v>205</v>
       </c>
       <c r="E275" t="n">
-        <v>12338</v>
+        <v>12345</v>
       </c>
       <c r="F275" t="n">
         <v>93</v>
@@ -7015,13 +6991,13 @@
         <v>4876</v>
       </c>
       <c r="C276" t="n">
-        <v>288611</v>
+        <v>288612</v>
       </c>
       <c r="D276" t="n">
         <v>183</v>
       </c>
       <c r="E276" t="n">
-        <v>12521</v>
+        <v>12528</v>
       </c>
       <c r="F276" t="n">
         <v>107</v>
@@ -7038,13 +7014,13 @@
         <v>4512</v>
       </c>
       <c r="C277" t="n">
-        <v>293123</v>
+        <v>293124</v>
       </c>
       <c r="D277" t="n">
         <v>166</v>
       </c>
       <c r="E277" t="n">
-        <v>12687</v>
+        <v>12694</v>
       </c>
       <c r="F277" t="n">
         <v>83</v>
@@ -7061,13 +7037,13 @@
         <v>4339</v>
       </c>
       <c r="C278" t="n">
-        <v>297462</v>
+        <v>297463</v>
       </c>
       <c r="D278" t="n">
         <v>210</v>
       </c>
       <c r="E278" t="n">
-        <v>12897</v>
+        <v>12904</v>
       </c>
       <c r="F278" t="n">
         <v>84</v>
@@ -7084,13 +7060,13 @@
         <v>2585</v>
       </c>
       <c r="C279" t="n">
-        <v>300047</v>
+        <v>300048</v>
       </c>
       <c r="D279" t="n">
         <v>105</v>
       </c>
       <c r="E279" t="n">
-        <v>13002</v>
+        <v>13009</v>
       </c>
       <c r="F279" t="n">
         <v>84</v>
@@ -7104,7 +7080,7 @@
         <v>44157</v>
       </c>
       <c r="B280" t="n">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C280" t="n">
         <v>301950</v>
@@ -7113,7 +7089,7 @@
         <v>149</v>
       </c>
       <c r="E280" t="n">
-        <v>13151</v>
+        <v>13158</v>
       </c>
       <c r="F280" t="n">
         <v>86</v>
@@ -7136,7 +7112,7 @@
         <v>225</v>
       </c>
       <c r="E281" t="n">
-        <v>13376</v>
+        <v>13383</v>
       </c>
       <c r="F281" t="n">
         <v>98</v>
@@ -7159,7 +7135,7 @@
         <v>160</v>
       </c>
       <c r="E282" t="n">
-        <v>13536</v>
+        <v>13543</v>
       </c>
       <c r="F282" t="n">
         <v>92</v>
@@ -7182,7 +7158,7 @@
         <v>173</v>
       </c>
       <c r="E283" t="n">
-        <v>13709</v>
+        <v>13716</v>
       </c>
       <c r="F283" t="n">
         <v>91</v>
@@ -7205,7 +7181,7 @@
         <v>176</v>
       </c>
       <c r="E284" t="n">
-        <v>13885</v>
+        <v>13892</v>
       </c>
       <c r="F284" t="n">
         <v>80</v>
@@ -7228,7 +7204,7 @@
         <v>189</v>
       </c>
       <c r="E285" t="n">
-        <v>14074</v>
+        <v>14081</v>
       </c>
       <c r="F285" t="n">
         <v>88</v>
@@ -7251,7 +7227,7 @@
         <v>148</v>
       </c>
       <c r="E286" t="n">
-        <v>14222</v>
+        <v>14229</v>
       </c>
       <c r="F286" t="n">
         <v>90</v>
@@ -7274,7 +7250,7 @@
         <v>113</v>
       </c>
       <c r="E287" t="n">
-        <v>14335</v>
+        <v>14342</v>
       </c>
       <c r="F287" t="n">
         <v>83</v>
@@ -7297,7 +7273,7 @@
         <v>199</v>
       </c>
       <c r="E288" t="n">
-        <v>14534</v>
+        <v>14541</v>
       </c>
       <c r="F288" t="n">
         <v>94</v>
@@ -7320,7 +7296,7 @@
         <v>153</v>
       </c>
       <c r="E289" t="n">
-        <v>14687</v>
+        <v>14694</v>
       </c>
       <c r="F289" t="n">
         <v>88</v>
@@ -7343,7 +7319,7 @@
         <v>167</v>
       </c>
       <c r="E290" t="n">
-        <v>14854</v>
+        <v>14861</v>
       </c>
       <c r="F290" t="n">
         <v>93</v>
@@ -7366,7 +7342,7 @@
         <v>181</v>
       </c>
       <c r="E291" t="n">
-        <v>15035</v>
+        <v>15042</v>
       </c>
       <c r="F291" t="n">
         <v>81</v>
@@ -7389,7 +7365,7 @@
         <v>177</v>
       </c>
       <c r="E292" t="n">
-        <v>15212</v>
+        <v>15219</v>
       </c>
       <c r="F292" t="n">
         <v>82</v>
@@ -7412,7 +7388,7 @@
         <v>140</v>
       </c>
       <c r="E293" t="n">
-        <v>15352</v>
+        <v>15359</v>
       </c>
       <c r="F293" t="n">
         <v>98</v>
@@ -7432,10 +7408,10 @@
         <v>355681</v>
       </c>
       <c r="D294" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E294" t="n">
-        <v>15483</v>
+        <v>15491</v>
       </c>
       <c r="F294" t="n">
         <v>71</v>
@@ -7449,16 +7425,16 @@
         <v>44172</v>
       </c>
       <c r="B295" t="n">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="C295" t="n">
-        <v>361532</v>
+        <v>361533</v>
       </c>
       <c r="D295" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E295" t="n">
-        <v>15696</v>
+        <v>15706</v>
       </c>
       <c r="F295" t="n">
         <v>80</v>
@@ -7475,13 +7451,13 @@
         <v>4686</v>
       </c>
       <c r="C296" t="n">
-        <v>366218</v>
+        <v>366219</v>
       </c>
       <c r="D296" t="n">
         <v>173</v>
       </c>
       <c r="E296" t="n">
-        <v>15869</v>
+        <v>15879</v>
       </c>
       <c r="F296" t="n">
         <v>97</v>
@@ -7498,13 +7474,13 @@
         <v>5263</v>
       </c>
       <c r="C297" t="n">
-        <v>371481</v>
+        <v>371482</v>
       </c>
       <c r="D297" t="n">
         <v>203</v>
       </c>
       <c r="E297" t="n">
-        <v>16072</v>
+        <v>16082</v>
       </c>
       <c r="F297" t="n">
         <v>86</v>
@@ -7521,13 +7497,13 @@
         <v>4661</v>
       </c>
       <c r="C298" t="n">
-        <v>376142</v>
+        <v>376143</v>
       </c>
       <c r="D298" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E298" t="n">
-        <v>16239</v>
+        <v>16250</v>
       </c>
       <c r="F298" t="n">
         <v>85</v>
@@ -7544,13 +7520,13 @@
         <v>4708</v>
       </c>
       <c r="C299" t="n">
-        <v>380850</v>
+        <v>380851</v>
       </c>
       <c r="D299" t="n">
         <v>160</v>
       </c>
       <c r="E299" t="n">
-        <v>16399</v>
+        <v>16410</v>
       </c>
       <c r="F299" t="n">
         <v>90</v>
@@ -7567,13 +7543,13 @@
         <v>2890</v>
       </c>
       <c r="C300" t="n">
-        <v>383740</v>
+        <v>383741</v>
       </c>
       <c r="D300" t="n">
         <v>143</v>
       </c>
       <c r="E300" t="n">
-        <v>16542</v>
+        <v>16553</v>
       </c>
       <c r="F300" t="n">
         <v>85</v>
@@ -7587,7 +7563,7 @@
         <v>44178</v>
       </c>
       <c r="B301" t="n">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C301" t="n">
         <v>385857</v>
@@ -7596,7 +7572,7 @@
         <v>140</v>
       </c>
       <c r="E301" t="n">
-        <v>16682</v>
+        <v>16693</v>
       </c>
       <c r="F301" t="n">
         <v>85</v>
@@ -7616,10 +7592,10 @@
         <v>391804</v>
       </c>
       <c r="D302" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E302" t="n">
-        <v>16875</v>
+        <v>16887</v>
       </c>
       <c r="F302" t="n">
         <v>98</v>
@@ -7633,16 +7609,16 @@
         <v>44180</v>
       </c>
       <c r="B303" t="n">
-        <v>5205</v>
+        <v>5206</v>
       </c>
       <c r="C303" t="n">
-        <v>397009</v>
+        <v>397010</v>
       </c>
       <c r="D303" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E303" t="n">
-        <v>17050</v>
+        <v>17063</v>
       </c>
       <c r="F303" t="n">
         <v>91</v>
@@ -7656,16 +7632,16 @@
         <v>44181</v>
       </c>
       <c r="B304" t="n">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="C304" t="n">
-        <v>401863</v>
+        <v>401865</v>
       </c>
       <c r="D304" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E304" t="n">
-        <v>17221</v>
+        <v>17235</v>
       </c>
       <c r="F304" t="n">
         <v>92</v>
@@ -7682,13 +7658,13 @@
         <v>4423</v>
       </c>
       <c r="C305" t="n">
-        <v>406286</v>
+        <v>406288</v>
       </c>
       <c r="D305" t="n">
         <v>162</v>
       </c>
       <c r="E305" t="n">
-        <v>17383</v>
+        <v>17397</v>
       </c>
       <c r="F305" t="n">
         <v>89</v>
@@ -7705,13 +7681,13 @@
         <v>4391</v>
       </c>
       <c r="C306" t="n">
-        <v>410677</v>
+        <v>410679</v>
       </c>
       <c r="D306" t="n">
         <v>189</v>
       </c>
       <c r="E306" t="n">
-        <v>17572</v>
+        <v>17586</v>
       </c>
       <c r="F306" t="n">
         <v>93</v>
@@ -7725,16 +7701,16 @@
         <v>44184</v>
       </c>
       <c r="B307" t="n">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="C307" t="n">
-        <v>413384</v>
+        <v>413385</v>
       </c>
       <c r="D307" t="n">
         <v>133</v>
       </c>
       <c r="E307" t="n">
-        <v>17705</v>
+        <v>17719</v>
       </c>
       <c r="F307" t="n">
         <v>80</v>
@@ -7751,13 +7727,13 @@
         <v>1976</v>
       </c>
       <c r="C308" t="n">
-        <v>415360</v>
+        <v>415361</v>
       </c>
       <c r="D308" t="n">
         <v>107</v>
       </c>
       <c r="E308" t="n">
-        <v>17812</v>
+        <v>17826</v>
       </c>
       <c r="F308" t="n">
         <v>101</v>
@@ -7774,13 +7750,13 @@
         <v>5669</v>
       </c>
       <c r="C309" t="n">
-        <v>421029</v>
+        <v>421030</v>
       </c>
       <c r="D309" t="n">
         <v>189</v>
       </c>
       <c r="E309" t="n">
-        <v>18001</v>
+        <v>18015</v>
       </c>
       <c r="F309" t="n">
         <v>89</v>
@@ -7797,13 +7773,13 @@
         <v>4662</v>
       </c>
       <c r="C310" t="n">
-        <v>425691</v>
+        <v>425692</v>
       </c>
       <c r="D310" t="n">
         <v>160</v>
       </c>
       <c r="E310" t="n">
-        <v>18161</v>
+        <v>18175</v>
       </c>
       <c r="F310" t="n">
         <v>83</v>
@@ -7820,13 +7796,13 @@
         <v>4525</v>
       </c>
       <c r="C311" t="n">
-        <v>430216</v>
+        <v>430217</v>
       </c>
       <c r="D311" t="n">
         <v>168</v>
       </c>
       <c r="E311" t="n">
-        <v>18329</v>
+        <v>18343</v>
       </c>
       <c r="F311" t="n">
         <v>82</v>
@@ -7843,13 +7819,13 @@
         <v>3081</v>
       </c>
       <c r="C312" t="n">
-        <v>433297</v>
+        <v>433298</v>
       </c>
       <c r="D312" t="n">
         <v>165</v>
       </c>
       <c r="E312" t="n">
-        <v>18494</v>
+        <v>18508</v>
       </c>
       <c r="F312" t="n">
         <v>91</v>
@@ -7866,13 +7842,13 @@
         <v>1751</v>
       </c>
       <c r="C313" t="n">
-        <v>435048</v>
+        <v>435049</v>
       </c>
       <c r="D313" t="n">
         <v>148</v>
       </c>
       <c r="E313" t="n">
-        <v>18642</v>
+        <v>18656</v>
       </c>
       <c r="F313" t="n">
         <v>67</v>
@@ -7889,13 +7865,13 @@
         <v>2378</v>
       </c>
       <c r="C314" t="n">
-        <v>437426</v>
+        <v>437427</v>
       </c>
       <c r="D314" t="n">
         <v>136</v>
       </c>
       <c r="E314" t="n">
-        <v>18778</v>
+        <v>18792</v>
       </c>
       <c r="F314" t="n">
         <v>97</v>
@@ -7912,13 +7888,13 @@
         <v>2143</v>
       </c>
       <c r="C315" t="n">
-        <v>439569</v>
+        <v>439570</v>
       </c>
       <c r="D315" t="n">
         <v>126</v>
       </c>
       <c r="E315" t="n">
-        <v>18904</v>
+        <v>18918</v>
       </c>
       <c r="F315" t="n">
         <v>92</v>
@@ -7935,13 +7911,13 @@
         <v>5071</v>
       </c>
       <c r="C316" t="n">
-        <v>444640</v>
+        <v>444641</v>
       </c>
       <c r="D316" t="n">
         <v>220</v>
       </c>
       <c r="E316" t="n">
-        <v>19124</v>
+        <v>19138</v>
       </c>
       <c r="F316" t="n">
         <v>81</v>
@@ -7958,13 +7934,13 @@
         <v>4498</v>
       </c>
       <c r="C317" t="n">
-        <v>449138</v>
+        <v>449139</v>
       </c>
       <c r="D317" t="n">
         <v>157</v>
       </c>
       <c r="E317" t="n">
-        <v>19281</v>
+        <v>19295</v>
       </c>
       <c r="F317" t="n">
         <v>79</v>
@@ -7981,13 +7957,13 @@
         <v>4240</v>
       </c>
       <c r="C318" t="n">
-        <v>453378</v>
+        <v>453379</v>
       </c>
       <c r="D318" t="n">
         <v>166</v>
       </c>
       <c r="E318" t="n">
-        <v>19447</v>
+        <v>19461</v>
       </c>
       <c r="F318" t="n">
         <v>93</v>
@@ -8004,13 +7980,13 @@
         <v>3079</v>
       </c>
       <c r="C319" t="n">
-        <v>456457</v>
+        <v>456458</v>
       </c>
       <c r="D319" t="n">
         <v>132</v>
       </c>
       <c r="E319" t="n">
-        <v>19579</v>
+        <v>19593</v>
       </c>
       <c r="F319" t="n">
         <v>82</v>
@@ -8027,13 +8003,13 @@
         <v>1693</v>
       </c>
       <c r="C320" t="n">
-        <v>458150</v>
+        <v>458151</v>
       </c>
       <c r="D320" t="n">
         <v>132</v>
       </c>
       <c r="E320" t="n">
-        <v>19711</v>
+        <v>19725</v>
       </c>
       <c r="F320" t="n">
         <v>73</v>
@@ -8050,13 +8026,13 @@
         <v>2739</v>
       </c>
       <c r="C321" t="n">
-        <v>460889</v>
+        <v>460890</v>
       </c>
       <c r="D321" t="n">
         <v>171</v>
       </c>
       <c r="E321" t="n">
-        <v>19882</v>
+        <v>19896</v>
       </c>
       <c r="F321" t="n">
         <v>69</v>
@@ -8073,13 +8049,13 @@
         <v>2238</v>
       </c>
       <c r="C322" t="n">
-        <v>463127</v>
+        <v>463128</v>
       </c>
       <c r="D322" t="n">
         <v>136</v>
       </c>
       <c r="E322" t="n">
-        <v>20018</v>
+        <v>20032</v>
       </c>
       <c r="F322" t="n">
         <v>69</v>
@@ -8093,7 +8069,7 @@
         <v>44200</v>
       </c>
       <c r="B323" t="n">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="C323" t="n">
         <v>468437</v>
@@ -8102,7 +8078,7 @@
         <v>185</v>
       </c>
       <c r="E323" t="n">
-        <v>20203</v>
+        <v>20217</v>
       </c>
       <c r="F323" t="n">
         <v>52</v>
@@ -8125,7 +8101,7 @@
         <v>139</v>
       </c>
       <c r="E324" t="n">
-        <v>20342</v>
+        <v>20356</v>
       </c>
       <c r="F324" t="n">
         <v>65</v>
@@ -8148,7 +8124,7 @@
         <v>127</v>
       </c>
       <c r="E325" t="n">
-        <v>20469</v>
+        <v>20483</v>
       </c>
       <c r="F325" t="n">
         <v>61</v>
@@ -8171,7 +8147,7 @@
         <v>154</v>
       </c>
       <c r="E326" t="n">
-        <v>20623</v>
+        <v>20637</v>
       </c>
       <c r="F326" t="n">
         <v>66</v>
@@ -8191,10 +8167,10 @@
         <v>482238</v>
       </c>
       <c r="D327" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E327" t="n">
-        <v>20760</v>
+        <v>20775</v>
       </c>
       <c r="F327" t="n">
         <v>49</v>
@@ -8217,7 +8193,7 @@
         <v>113</v>
       </c>
       <c r="E328" t="n">
-        <v>20873</v>
+        <v>20888</v>
       </c>
       <c r="F328" t="n">
         <v>67</v>
@@ -8240,7 +8216,7 @@
         <v>81</v>
       </c>
       <c r="E329" t="n">
-        <v>20954</v>
+        <v>20969</v>
       </c>
       <c r="F329" t="n">
         <v>58</v>
@@ -8263,7 +8239,7 @@
         <v>126</v>
       </c>
       <c r="E330" t="n">
-        <v>21080</v>
+        <v>21095</v>
       </c>
       <c r="F330" t="n">
         <v>57</v>
@@ -8286,7 +8262,7 @@
         <v>98</v>
       </c>
       <c r="E331" t="n">
-        <v>21178</v>
+        <v>21193</v>
       </c>
       <c r="F331" t="n">
         <v>54</v>
@@ -8309,7 +8285,7 @@
         <v>117</v>
       </c>
       <c r="E332" t="n">
-        <v>21295</v>
+        <v>21310</v>
       </c>
       <c r="F332" t="n">
         <v>57</v>
@@ -8329,10 +8305,10 @@
         <v>496027</v>
       </c>
       <c r="D333" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E333" t="n">
-        <v>21390</v>
+        <v>21406</v>
       </c>
       <c r="F333" t="n">
         <v>49</v>
@@ -8355,7 +8331,7 @@
         <v>92</v>
       </c>
       <c r="E334" t="n">
-        <v>21482</v>
+        <v>21498</v>
       </c>
       <c r="F334" t="n">
         <v>65</v>
@@ -8378,7 +8354,7 @@
         <v>78</v>
       </c>
       <c r="E335" t="n">
-        <v>21560</v>
+        <v>21576</v>
       </c>
       <c r="F335" t="n">
         <v>50</v>
@@ -8401,7 +8377,7 @@
         <v>63</v>
       </c>
       <c r="E336" t="n">
-        <v>21623</v>
+        <v>21639</v>
       </c>
       <c r="F336" t="n">
         <v>38</v>
@@ -8424,7 +8400,7 @@
         <v>114</v>
       </c>
       <c r="E337" t="n">
-        <v>21737</v>
+        <v>21753</v>
       </c>
       <c r="F337" t="n">
         <v>38</v>
@@ -8447,7 +8423,7 @@
         <v>87</v>
       </c>
       <c r="E338" t="n">
-        <v>21824</v>
+        <v>21840</v>
       </c>
       <c r="F338" t="n">
         <v>63</v>
@@ -8470,7 +8446,7 @@
         <v>83</v>
       </c>
       <c r="E339" t="n">
-        <v>21907</v>
+        <v>21923</v>
       </c>
       <c r="F339" t="n">
         <v>45</v>
@@ -8493,7 +8469,7 @@
         <v>82</v>
       </c>
       <c r="E340" t="n">
-        <v>21989</v>
+        <v>22005</v>
       </c>
       <c r="F340" t="n">
         <v>45</v>
@@ -8513,10 +8489,10 @@
         <v>512125</v>
       </c>
       <c r="D341" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E341" t="n">
-        <v>22076</v>
+        <v>22093</v>
       </c>
       <c r="F341" t="n">
         <v>44</v>
@@ -8539,7 +8515,7 @@
         <v>42</v>
       </c>
       <c r="E342" t="n">
-        <v>22118</v>
+        <v>22135</v>
       </c>
       <c r="F342" t="n">
         <v>45</v>
@@ -8562,7 +8538,7 @@
         <v>35</v>
       </c>
       <c r="E343" t="n">
-        <v>22153</v>
+        <v>22170</v>
       </c>
       <c r="F343" t="n">
         <v>49</v>
@@ -8585,7 +8561,7 @@
         <v>75</v>
       </c>
       <c r="E344" t="n">
-        <v>22228</v>
+        <v>22245</v>
       </c>
       <c r="F344" t="n">
         <v>32</v>
@@ -8608,7 +8584,7 @@
         <v>84</v>
       </c>
       <c r="E345" t="n">
-        <v>22312</v>
+        <v>22329</v>
       </c>
       <c r="F345" t="n">
         <v>39</v>
@@ -8628,10 +8604,10 @@
         <v>520196</v>
       </c>
       <c r="D346" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E346" t="n">
-        <v>22377</v>
+        <v>22395</v>
       </c>
       <c r="F346" t="n">
         <v>34</v>
@@ -8654,7 +8630,7 @@
         <v>67</v>
       </c>
       <c r="E347" t="n">
-        <v>22444</v>
+        <v>22462</v>
       </c>
       <c r="F347" t="n">
         <v>39</v>
@@ -8677,7 +8653,7 @@
         <v>59</v>
       </c>
       <c r="E348" t="n">
-        <v>22503</v>
+        <v>22521</v>
       </c>
       <c r="F348" t="n">
         <v>35</v>
@@ -8700,7 +8676,7 @@
         <v>53</v>
       </c>
       <c r="E349" t="n">
-        <v>22556</v>
+        <v>22574</v>
       </c>
       <c r="F349" t="n">
         <v>28</v>
@@ -8720,10 +8696,10 @@
         <v>525513</v>
       </c>
       <c r="D350" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E350" t="n">
-        <v>22598</v>
+        <v>22617</v>
       </c>
       <c r="F350" t="n">
         <v>28</v>
@@ -8746,7 +8722,7 @@
         <v>71</v>
       </c>
       <c r="E351" t="n">
-        <v>22669</v>
+        <v>22688</v>
       </c>
       <c r="F351" t="n">
         <v>31</v>
@@ -8769,7 +8745,7 @@
         <v>65</v>
       </c>
       <c r="E352" t="n">
-        <v>22734</v>
+        <v>22753</v>
       </c>
       <c r="F352" t="n">
         <v>23</v>
@@ -8792,7 +8768,7 @@
         <v>61</v>
       </c>
       <c r="E353" t="n">
-        <v>22795</v>
+        <v>22814</v>
       </c>
       <c r="F353" t="n">
         <v>19</v>
@@ -8815,7 +8791,7 @@
         <v>58</v>
       </c>
       <c r="E354" t="n">
-        <v>22853</v>
+        <v>22872</v>
       </c>
       <c r="F354" t="n">
         <v>24</v>
@@ -8838,7 +8814,7 @@
         <v>55</v>
       </c>
       <c r="E355" t="n">
-        <v>22908</v>
+        <v>22927</v>
       </c>
       <c r="F355" t="n">
         <v>22</v>
@@ -8861,7 +8837,7 @@
         <v>51</v>
       </c>
       <c r="E356" t="n">
-        <v>22959</v>
+        <v>22978</v>
       </c>
       <c r="F356" t="n">
         <v>26</v>
@@ -8884,7 +8860,7 @@
         <v>45</v>
       </c>
       <c r="E357" t="n">
-        <v>23004</v>
+        <v>23023</v>
       </c>
       <c r="F357" t="n">
         <v>20</v>
@@ -8907,7 +8883,7 @@
         <v>59</v>
       </c>
       <c r="E358" t="n">
-        <v>23063</v>
+        <v>23082</v>
       </c>
       <c r="F358" t="n">
         <v>20</v>
@@ -8930,7 +8906,7 @@
         <v>42</v>
       </c>
       <c r="E359" t="n">
-        <v>23105</v>
+        <v>23124</v>
       </c>
       <c r="F359" t="n">
         <v>15</v>
@@ -8953,7 +8929,7 @@
         <v>45</v>
       </c>
       <c r="E360" t="n">
-        <v>23150</v>
+        <v>23169</v>
       </c>
       <c r="F360" t="n">
         <v>23</v>
@@ -8976,7 +8952,7 @@
         <v>46</v>
       </c>
       <c r="E361" t="n">
-        <v>23196</v>
+        <v>23215</v>
       </c>
       <c r="F361" t="n">
         <v>14</v>
@@ -8999,7 +8975,7 @@
         <v>45</v>
       </c>
       <c r="E362" t="n">
-        <v>23241</v>
+        <v>23260</v>
       </c>
       <c r="F362" t="n">
         <v>16</v>
@@ -9022,7 +8998,7 @@
         <v>35</v>
       </c>
       <c r="E363" t="n">
-        <v>23276</v>
+        <v>23295</v>
       </c>
       <c r="F363" t="n">
         <v>18</v>
@@ -9045,7 +9021,7 @@
         <v>39</v>
       </c>
       <c r="E364" t="n">
-        <v>23315</v>
+        <v>23334</v>
       </c>
       <c r="F364" t="n">
         <v>23</v>
@@ -9068,7 +9044,7 @@
         <v>38</v>
       </c>
       <c r="E365" t="n">
-        <v>23353</v>
+        <v>23372</v>
       </c>
       <c r="F365" t="n">
         <v>18</v>
@@ -9091,7 +9067,7 @@
         <v>46</v>
       </c>
       <c r="E366" t="n">
-        <v>23399</v>
+        <v>23418</v>
       </c>
       <c r="F366" t="n">
         <v>8</v>
@@ -9114,7 +9090,7 @@
         <v>48</v>
       </c>
       <c r="E367" t="n">
-        <v>23447</v>
+        <v>23466</v>
       </c>
       <c r="F367" t="n">
         <v>9</v>
@@ -9137,7 +9113,7 @@
         <v>61</v>
       </c>
       <c r="E368" t="n">
-        <v>23508</v>
+        <v>23527</v>
       </c>
       <c r="F368" t="n">
         <v>10</v>
@@ -9160,7 +9136,7 @@
         <v>46</v>
       </c>
       <c r="E369" t="n">
-        <v>23554</v>
+        <v>23573</v>
       </c>
       <c r="F369" t="n">
         <v>13</v>
@@ -9183,7 +9159,7 @@
         <v>24</v>
       </c>
       <c r="E370" t="n">
-        <v>23578</v>
+        <v>23597</v>
       </c>
       <c r="F370" t="n">
         <v>14</v>
@@ -9206,7 +9182,7 @@
         <v>34</v>
       </c>
       <c r="E371" t="n">
-        <v>23612</v>
+        <v>23631</v>
       </c>
       <c r="F371" t="n">
         <v>11</v>
@@ -9229,7 +9205,7 @@
         <v>44</v>
       </c>
       <c r="E372" t="n">
-        <v>23656</v>
+        <v>23675</v>
       </c>
       <c r="F372" t="n">
         <v>9</v>
@@ -9252,7 +9228,7 @@
         <v>40</v>
       </c>
       <c r="E373" t="n">
-        <v>23696</v>
+        <v>23715</v>
       </c>
       <c r="F373" t="n">
         <v>10</v>
@@ -9275,7 +9251,7 @@
         <v>46</v>
       </c>
       <c r="E374" t="n">
-        <v>23742</v>
+        <v>23761</v>
       </c>
       <c r="F374" t="n">
         <v>8</v>
@@ -9298,7 +9274,7 @@
         <v>52</v>
       </c>
       <c r="E375" t="n">
-        <v>23794</v>
+        <v>23813</v>
       </c>
       <c r="F375" t="n">
         <v>10</v>
@@ -9321,7 +9297,7 @@
         <v>37</v>
       </c>
       <c r="E376" t="n">
-        <v>23831</v>
+        <v>23850</v>
       </c>
       <c r="F376" t="n">
         <v>7</v>
@@ -9344,7 +9320,7 @@
         <v>30</v>
       </c>
       <c r="E377" t="n">
-        <v>23861</v>
+        <v>23880</v>
       </c>
       <c r="F377" t="n">
         <v>10</v>
@@ -9367,7 +9343,7 @@
         <v>32</v>
       </c>
       <c r="E378" t="n">
-        <v>23893</v>
+        <v>23912</v>
       </c>
       <c r="F378" t="n">
         <v>6</v>
@@ -9390,7 +9366,7 @@
         <v>44</v>
       </c>
       <c r="E379" t="n">
-        <v>23937</v>
+        <v>23956</v>
       </c>
       <c r="F379" t="n">
         <v>9</v>
@@ -9413,7 +9389,7 @@
         <v>56</v>
       </c>
       <c r="E380" t="n">
-        <v>23993</v>
+        <v>24012</v>
       </c>
       <c r="F380" t="n">
         <v>10</v>
@@ -9436,7 +9412,7 @@
         <v>57</v>
       </c>
       <c r="E381" t="n">
-        <v>24050</v>
+        <v>24069</v>
       </c>
       <c r="F381" t="n">
         <v>10</v>
@@ -9459,7 +9435,7 @@
         <v>39</v>
       </c>
       <c r="E382" t="n">
-        <v>24089</v>
+        <v>24108</v>
       </c>
       <c r="F382" t="n">
         <v>9</v>
@@ -9482,7 +9458,7 @@
         <v>55</v>
       </c>
       <c r="E383" t="n">
-        <v>24144</v>
+        <v>24163</v>
       </c>
       <c r="F383" t="n">
         <v>10</v>
@@ -9505,7 +9481,7 @@
         <v>42</v>
       </c>
       <c r="E384" t="n">
-        <v>24186</v>
+        <v>24205</v>
       </c>
       <c r="F384" t="n">
         <v>8</v>
@@ -9528,7 +9504,7 @@
         <v>40</v>
       </c>
       <c r="E385" t="n">
-        <v>24226</v>
+        <v>24245</v>
       </c>
       <c r="F385" t="n">
         <v>9</v>
@@ -9551,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="E386" t="n">
-        <v>24289</v>
+        <v>24308</v>
       </c>
       <c r="F386" t="n">
         <v>10</v>
@@ -9574,7 +9550,7 @@
         <v>40</v>
       </c>
       <c r="E387" t="n">
-        <v>24329</v>
+        <v>24348</v>
       </c>
       <c r="F387" t="n">
         <v>9</v>
@@ -9597,7 +9573,7 @@
         <v>54</v>
       </c>
       <c r="E388" t="n">
-        <v>24383</v>
+        <v>24402</v>
       </c>
       <c r="F388" t="n">
         <v>12</v>
@@ -9620,7 +9596,7 @@
         <v>47</v>
       </c>
       <c r="E389" t="n">
-        <v>24430</v>
+        <v>24449</v>
       </c>
       <c r="F389" t="n">
         <v>13</v>
@@ -9643,7 +9619,7 @@
         <v>52</v>
       </c>
       <c r="E390" t="n">
-        <v>24482</v>
+        <v>24501</v>
       </c>
       <c r="F390" t="n">
         <v>7</v>
@@ -9666,7 +9642,7 @@
         <v>41</v>
       </c>
       <c r="E391" t="n">
-        <v>24523</v>
+        <v>24542</v>
       </c>
       <c r="F391" t="n">
         <v>14</v>
@@ -9689,7 +9665,7 @@
         <v>53</v>
       </c>
       <c r="E392" t="n">
-        <v>24576</v>
+        <v>24595</v>
       </c>
       <c r="F392" t="n">
         <v>9</v>
@@ -9712,7 +9688,7 @@
         <v>72</v>
       </c>
       <c r="E393" t="n">
-        <v>24648</v>
+        <v>24667</v>
       </c>
       <c r="F393" t="n">
         <v>9</v>
@@ -9735,7 +9711,7 @@
         <v>53</v>
       </c>
       <c r="E394" t="n">
-        <v>24701</v>
+        <v>24720</v>
       </c>
       <c r="F394" t="n">
         <v>10</v>
@@ -9758,7 +9734,7 @@
         <v>52</v>
       </c>
       <c r="E395" t="n">
-        <v>24753</v>
+        <v>24772</v>
       </c>
       <c r="F395" t="n">
         <v>13</v>
@@ -9781,7 +9757,7 @@
         <v>63</v>
       </c>
       <c r="E396" t="n">
-        <v>24816</v>
+        <v>24835</v>
       </c>
       <c r="F396" t="n">
         <v>9</v>
@@ -9804,7 +9780,7 @@
         <v>65</v>
       </c>
       <c r="E397" t="n">
-        <v>24881</v>
+        <v>24900</v>
       </c>
       <c r="F397" t="n">
         <v>8</v>
@@ -9827,7 +9803,7 @@
         <v>48</v>
       </c>
       <c r="E398" t="n">
-        <v>24929</v>
+        <v>24948</v>
       </c>
       <c r="F398" t="n">
         <v>4</v>
@@ -9850,7 +9826,7 @@
         <v>45</v>
       </c>
       <c r="E399" t="n">
-        <v>24974</v>
+        <v>24993</v>
       </c>
       <c r="F399" t="n">
         <v>7</v>
@@ -9873,7 +9849,7 @@
         <v>65</v>
       </c>
       <c r="E400" t="n">
-        <v>25039</v>
+        <v>25058</v>
       </c>
       <c r="F400" t="n">
         <v>5</v>
@@ -9896,7 +9872,7 @@
         <v>50</v>
       </c>
       <c r="E401" t="n">
-        <v>25089</v>
+        <v>25108</v>
       </c>
       <c r="F401" t="n">
         <v>12</v>
@@ -9919,7 +9895,7 @@
         <v>68</v>
       </c>
       <c r="E402" t="n">
-        <v>25157</v>
+        <v>25176</v>
       </c>
       <c r="F402" t="n">
         <v>6</v>
@@ -9942,7 +9918,7 @@
         <v>66</v>
       </c>
       <c r="E403" t="n">
-        <v>25223</v>
+        <v>25242</v>
       </c>
       <c r="F403" t="n">
         <v>12</v>
@@ -9965,7 +9941,7 @@
         <v>77</v>
       </c>
       <c r="E404" t="n">
-        <v>25300</v>
+        <v>25319</v>
       </c>
       <c r="F404" t="n">
         <v>4</v>
@@ -9988,7 +9964,7 @@
         <v>73</v>
       </c>
       <c r="E405" t="n">
-        <v>25373</v>
+        <v>25392</v>
       </c>
       <c r="F405" t="n">
         <v>10</v>
@@ -10011,7 +9987,7 @@
         <v>56</v>
       </c>
       <c r="E406" t="n">
-        <v>25429</v>
+        <v>25448</v>
       </c>
       <c r="F406" t="n">
         <v>9</v>
@@ -10034,7 +10010,7 @@
         <v>80</v>
       </c>
       <c r="E407" t="n">
-        <v>25509</v>
+        <v>25528</v>
       </c>
       <c r="F407" t="n">
         <v>5</v>
@@ -10057,7 +10033,7 @@
         <v>77</v>
       </c>
       <c r="E408" t="n">
-        <v>25586</v>
+        <v>25605</v>
       </c>
       <c r="F408" t="n">
         <v>12</v>
@@ -10080,7 +10056,7 @@
         <v>75</v>
       </c>
       <c r="E409" t="n">
-        <v>25661</v>
+        <v>25680</v>
       </c>
       <c r="F409" t="n">
         <v>14</v>
@@ -10103,7 +10079,7 @@
         <v>74</v>
       </c>
       <c r="E410" t="n">
-        <v>25735</v>
+        <v>25754</v>
       </c>
       <c r="F410" t="n">
         <v>12</v>
@@ -10126,7 +10102,7 @@
         <v>67</v>
       </c>
       <c r="E411" t="n">
-        <v>25802</v>
+        <v>25821</v>
       </c>
       <c r="F411" t="n">
         <v>6</v>
@@ -10149,7 +10125,7 @@
         <v>79</v>
       </c>
       <c r="E412" t="n">
-        <v>25881</v>
+        <v>25900</v>
       </c>
       <c r="F412" t="n">
         <v>11</v>
@@ -10172,7 +10148,7 @@
         <v>80</v>
       </c>
       <c r="E413" t="n">
-        <v>25961</v>
+        <v>25980</v>
       </c>
       <c r="F413" t="n">
         <v>10</v>
@@ -10195,7 +10171,7 @@
         <v>69</v>
       </c>
       <c r="E414" t="n">
-        <v>26030</v>
+        <v>26049</v>
       </c>
       <c r="F414" t="n">
         <v>15</v>
@@ -10218,7 +10194,7 @@
         <v>88</v>
       </c>
       <c r="E415" t="n">
-        <v>26118</v>
+        <v>26137</v>
       </c>
       <c r="F415" t="n">
         <v>11</v>
@@ -10241,7 +10217,7 @@
         <v>67</v>
       </c>
       <c r="E416" t="n">
-        <v>26185</v>
+        <v>26204</v>
       </c>
       <c r="F416" t="n">
         <v>11</v>
@@ -10264,7 +10240,7 @@
         <v>94</v>
       </c>
       <c r="E417" t="n">
-        <v>26279</v>
+        <v>26298</v>
       </c>
       <c r="F417" t="n">
         <v>5</v>
@@ -10287,7 +10263,7 @@
         <v>80</v>
       </c>
       <c r="E418" t="n">
-        <v>26359</v>
+        <v>26378</v>
       </c>
       <c r="F418" t="n">
         <v>8</v>
@@ -10310,7 +10286,7 @@
         <v>56</v>
       </c>
       <c r="E419" t="n">
-        <v>26415</v>
+        <v>26434</v>
       </c>
       <c r="F419" t="n">
         <v>5</v>
@@ -10333,7 +10309,7 @@
         <v>50</v>
       </c>
       <c r="E420" t="n">
-        <v>26465</v>
+        <v>26484</v>
       </c>
       <c r="F420" t="n">
         <v>7</v>
@@ -10356,7 +10332,7 @@
         <v>97</v>
       </c>
       <c r="E421" t="n">
-        <v>26562</v>
+        <v>26581</v>
       </c>
       <c r="F421" t="n">
         <v>3</v>
@@ -10379,7 +10355,7 @@
         <v>60</v>
       </c>
       <c r="E422" t="n">
-        <v>26622</v>
+        <v>26641</v>
       </c>
       <c r="F422" t="n">
         <v>9</v>
@@ -10402,7 +10378,7 @@
         <v>65</v>
       </c>
       <c r="E423" t="n">
-        <v>26687</v>
+        <v>26706</v>
       </c>
       <c r="F423" t="n">
         <v>6</v>
@@ -10425,7 +10401,7 @@
         <v>86</v>
       </c>
       <c r="E424" t="n">
-        <v>26773</v>
+        <v>26792</v>
       </c>
       <c r="F424" t="n">
         <v>4</v>
@@ -10439,16 +10415,16 @@
         <v>44302</v>
       </c>
       <c r="B425" t="n">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="C425" t="n">
-        <v>635326</v>
+        <v>635328</v>
       </c>
       <c r="D425" t="n">
         <v>70</v>
       </c>
       <c r="E425" t="n">
-        <v>26843</v>
+        <v>26862</v>
       </c>
       <c r="F425" t="n">
         <v>7</v>
@@ -10465,13 +10441,13 @@
         <v>1439</v>
       </c>
       <c r="C426" t="n">
-        <v>636765</v>
+        <v>636767</v>
       </c>
       <c r="D426" t="n">
         <v>60</v>
       </c>
       <c r="E426" t="n">
-        <v>26903</v>
+        <v>26922</v>
       </c>
       <c r="F426" t="n">
         <v>8</v>
@@ -10488,13 +10464,13 @@
         <v>1054</v>
       </c>
       <c r="C427" t="n">
-        <v>637819</v>
+        <v>637821</v>
       </c>
       <c r="D427" t="n">
         <v>52</v>
       </c>
       <c r="E427" t="n">
-        <v>26955</v>
+        <v>26974</v>
       </c>
       <c r="F427" t="n">
         <v>6</v>
@@ -10511,13 +10487,13 @@
         <v>2755</v>
       </c>
       <c r="C428" t="n">
-        <v>640574</v>
+        <v>640576</v>
       </c>
       <c r="D428" t="n">
         <v>74</v>
       </c>
       <c r="E428" t="n">
-        <v>27029</v>
+        <v>27048</v>
       </c>
       <c r="F428" t="n">
         <v>8</v>
@@ -10534,13 +10510,13 @@
         <v>2399</v>
       </c>
       <c r="C429" t="n">
-        <v>642973</v>
+        <v>642975</v>
       </c>
       <c r="D429" t="n">
         <v>80</v>
       </c>
       <c r="E429" t="n">
-        <v>27109</v>
+        <v>27128</v>
       </c>
       <c r="F429" t="n">
         <v>9</v>
@@ -10557,13 +10533,13 @@
         <v>2312</v>
       </c>
       <c r="C430" t="n">
-        <v>645285</v>
+        <v>645287</v>
       </c>
       <c r="D430" t="n">
         <v>83</v>
       </c>
       <c r="E430" t="n">
-        <v>27192</v>
+        <v>27211</v>
       </c>
       <c r="F430" t="n">
         <v>5</v>
@@ -10580,13 +10556,13 @@
         <v>2273</v>
       </c>
       <c r="C431" t="n">
-        <v>647558</v>
+        <v>647560</v>
       </c>
       <c r="D431" t="n">
         <v>59</v>
       </c>
       <c r="E431" t="n">
-        <v>27251</v>
+        <v>27270</v>
       </c>
       <c r="F431" t="n">
         <v>6</v>
@@ -10603,13 +10579,13 @@
         <v>2181</v>
       </c>
       <c r="C432" t="n">
-        <v>649739</v>
+        <v>649741</v>
       </c>
       <c r="D432" t="n">
         <v>68</v>
       </c>
       <c r="E432" t="n">
-        <v>27319</v>
+        <v>27338</v>
       </c>
       <c r="F432" t="n">
         <v>10</v>
@@ -10623,16 +10599,16 @@
         <v>44310</v>
       </c>
       <c r="B433" t="n">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C433" t="n">
-        <v>651202</v>
+        <v>651205</v>
       </c>
       <c r="D433" t="n">
         <v>61</v>
       </c>
       <c r="E433" t="n">
-        <v>27380</v>
+        <v>27399</v>
       </c>
       <c r="F433" t="n">
         <v>6</v>
@@ -10649,13 +10625,13 @@
         <v>1193</v>
       </c>
       <c r="C434" t="n">
-        <v>652395</v>
+        <v>652398</v>
       </c>
       <c r="D434" t="n">
         <v>53</v>
       </c>
       <c r="E434" t="n">
-        <v>27433</v>
+        <v>27452</v>
       </c>
       <c r="F434" t="n">
         <v>9</v>
@@ -10672,13 +10648,13 @@
         <v>2456</v>
       </c>
       <c r="C435" t="n">
-        <v>654851</v>
+        <v>654854</v>
       </c>
       <c r="D435" t="n">
         <v>89</v>
       </c>
       <c r="E435" t="n">
-        <v>27522</v>
+        <v>27541</v>
       </c>
       <c r="F435" t="n">
         <v>12</v>
@@ -10695,13 +10671,13 @@
         <v>2049</v>
       </c>
       <c r="C436" t="n">
-        <v>656900</v>
+        <v>656903</v>
       </c>
       <c r="D436" t="n">
         <v>71</v>
       </c>
       <c r="E436" t="n">
-        <v>27593</v>
+        <v>27612</v>
       </c>
       <c r="F436" t="n">
         <v>11</v>
@@ -10718,13 +10694,13 @@
         <v>2013</v>
       </c>
       <c r="C437" t="n">
-        <v>658913</v>
+        <v>658916</v>
       </c>
       <c r="D437" t="n">
         <v>63</v>
       </c>
       <c r="E437" t="n">
-        <v>27656</v>
+        <v>27675</v>
       </c>
       <c r="F437" t="n">
         <v>7</v>
@@ -10741,13 +10717,13 @@
         <v>1720</v>
       </c>
       <c r="C438" t="n">
-        <v>660633</v>
+        <v>660636</v>
       </c>
       <c r="D438" t="n">
         <v>63</v>
       </c>
       <c r="E438" t="n">
-        <v>27719</v>
+        <v>27738</v>
       </c>
       <c r="F438" t="n">
         <v>8</v>
@@ -10764,13 +10740,13 @@
         <v>1685</v>
       </c>
       <c r="C439" t="n">
-        <v>662318</v>
+        <v>662321</v>
       </c>
       <c r="D439" t="n">
         <v>60</v>
       </c>
       <c r="E439" t="n">
-        <v>27779</v>
+        <v>27798</v>
       </c>
       <c r="F439" t="n">
         <v>8</v>
@@ -10787,13 +10763,13 @@
         <v>1163</v>
       </c>
       <c r="C440" t="n">
-        <v>663481</v>
+        <v>663484</v>
       </c>
       <c r="D440" t="n">
         <v>63</v>
       </c>
       <c r="E440" t="n">
-        <v>27842</v>
+        <v>27861</v>
       </c>
       <c r="F440" t="n">
         <v>12</v>
@@ -10810,13 +10786,13 @@
         <v>833</v>
       </c>
       <c r="C441" t="n">
-        <v>664314</v>
+        <v>664317</v>
       </c>
       <c r="D441" t="n">
         <v>37</v>
       </c>
       <c r="E441" t="n">
-        <v>27879</v>
+        <v>27898</v>
       </c>
       <c r="F441" t="n">
         <v>9</v>
@@ -10833,13 +10809,13 @@
         <v>2023</v>
       </c>
       <c r="C442" t="n">
-        <v>666337</v>
+        <v>666340</v>
       </c>
       <c r="D442" t="n">
         <v>62</v>
       </c>
       <c r="E442" t="n">
-        <v>27941</v>
+        <v>27960</v>
       </c>
       <c r="F442" t="n">
         <v>4</v>
@@ -10856,13 +10832,13 @@
         <v>1738</v>
       </c>
       <c r="C443" t="n">
-        <v>668075</v>
+        <v>668078</v>
       </c>
       <c r="D443" t="n">
         <v>45</v>
       </c>
       <c r="E443" t="n">
-        <v>27986</v>
+        <v>28005</v>
       </c>
       <c r="F443" t="n">
         <v>4</v>
@@ -10879,13 +10855,13 @@
         <v>1654</v>
       </c>
       <c r="C444" t="n">
-        <v>669729</v>
+        <v>669732</v>
       </c>
       <c r="D444" t="n">
         <v>54</v>
       </c>
       <c r="E444" t="n">
-        <v>28040</v>
+        <v>28059</v>
       </c>
       <c r="F444" t="n">
         <v>10</v>
@@ -10902,13 +10878,13 @@
         <v>1488</v>
       </c>
       <c r="C445" t="n">
-        <v>671217</v>
+        <v>671220</v>
       </c>
       <c r="D445" t="n">
         <v>44</v>
       </c>
       <c r="E445" t="n">
-        <v>28084</v>
+        <v>28103</v>
       </c>
       <c r="F445" t="n">
         <v>4</v>
@@ -10925,13 +10901,13 @@
         <v>1573</v>
       </c>
       <c r="C446" t="n">
-        <v>672790</v>
+        <v>672793</v>
       </c>
       <c r="D446" t="n">
         <v>44</v>
       </c>
       <c r="E446" t="n">
-        <v>28128</v>
+        <v>28147</v>
       </c>
       <c r="F446" t="n">
         <v>7</v>
@@ -10948,13 +10924,13 @@
         <v>1065</v>
       </c>
       <c r="C447" t="n">
-        <v>673855</v>
+        <v>673858</v>
       </c>
       <c r="D447" t="n">
         <v>35</v>
       </c>
       <c r="E447" t="n">
-        <v>28163</v>
+        <v>28182</v>
       </c>
       <c r="F447" t="n">
         <v>5</v>
@@ -10971,13 +10947,13 @@
         <v>783</v>
       </c>
       <c r="C448" t="n">
-        <v>674638</v>
+        <v>674641</v>
       </c>
       <c r="D448" t="n">
         <v>43</v>
       </c>
       <c r="E448" t="n">
-        <v>28206</v>
+        <v>28225</v>
       </c>
       <c r="F448" t="n">
         <v>6</v>
@@ -10994,13 +10970,13 @@
         <v>1722</v>
       </c>
       <c r="C449" t="n">
-        <v>676360</v>
+        <v>676363</v>
       </c>
       <c r="D449" t="n">
         <v>39</v>
       </c>
       <c r="E449" t="n">
-        <v>28245</v>
+        <v>28264</v>
       </c>
       <c r="F449" t="n">
         <v>6</v>
@@ -11017,13 +10993,13 @@
         <v>1381</v>
       </c>
       <c r="C450" t="n">
-        <v>677741</v>
+        <v>677744</v>
       </c>
       <c r="D450" t="n">
         <v>40</v>
       </c>
       <c r="E450" t="n">
-        <v>28285</v>
+        <v>28304</v>
       </c>
       <c r="F450" t="n">
         <v>4</v>
@@ -11040,13 +11016,13 @@
         <v>1443</v>
       </c>
       <c r="C451" t="n">
-        <v>679184</v>
+        <v>679187</v>
       </c>
       <c r="D451" t="n">
         <v>34</v>
       </c>
       <c r="E451" t="n">
-        <v>28319</v>
+        <v>28338</v>
       </c>
       <c r="F451" t="n">
         <v>0</v>
@@ -11063,13 +11039,13 @@
         <v>673</v>
       </c>
       <c r="C452" t="n">
-        <v>679857</v>
+        <v>679860</v>
       </c>
       <c r="D452" t="n">
         <v>28</v>
       </c>
       <c r="E452" t="n">
-        <v>28347</v>
+        <v>28366</v>
       </c>
       <c r="F452" t="n">
         <v>5</v>
@@ -11086,13 +11062,13 @@
         <v>1171</v>
       </c>
       <c r="C453" t="n">
-        <v>681028</v>
+        <v>681031</v>
       </c>
       <c r="D453" t="n">
         <v>29</v>
       </c>
       <c r="E453" t="n">
-        <v>28376</v>
+        <v>28395</v>
       </c>
       <c r="F453" t="n">
         <v>3</v>
@@ -11109,13 +11085,13 @@
         <v>805</v>
       </c>
       <c r="C454" t="n">
-        <v>681833</v>
+        <v>681836</v>
       </c>
       <c r="D454" t="n">
         <v>28</v>
       </c>
       <c r="E454" t="n">
-        <v>28404</v>
+        <v>28423</v>
       </c>
       <c r="F454" t="n">
         <v>3</v>
@@ -11132,13 +11108,13 @@
         <v>656</v>
       </c>
       <c r="C455" t="n">
-        <v>682489</v>
+        <v>682492</v>
       </c>
       <c r="D455" t="n">
         <v>26</v>
       </c>
       <c r="E455" t="n">
-        <v>28430</v>
+        <v>28449</v>
       </c>
       <c r="F455" t="n">
         <v>9</v>
@@ -11155,13 +11131,13 @@
         <v>1672</v>
       </c>
       <c r="C456" t="n">
-        <v>684161</v>
+        <v>684164</v>
       </c>
       <c r="D456" t="n">
         <v>40</v>
       </c>
       <c r="E456" t="n">
-        <v>28470</v>
+        <v>28489</v>
       </c>
       <c r="F456" t="n">
         <v>1</v>
@@ -11178,13 +11154,13 @@
         <v>1342</v>
       </c>
       <c r="C457" t="n">
-        <v>685503</v>
+        <v>685506</v>
       </c>
       <c r="D457" t="n">
         <v>37</v>
       </c>
       <c r="E457" t="n">
-        <v>28507</v>
+        <v>28526</v>
       </c>
       <c r="F457" t="n">
         <v>3</v>
@@ -11201,13 +11177,13 @@
         <v>1211</v>
       </c>
       <c r="C458" t="n">
-        <v>686714</v>
+        <v>686717</v>
       </c>
       <c r="D458" t="n">
         <v>48</v>
       </c>
       <c r="E458" t="n">
-        <v>28555</v>
+        <v>28574</v>
       </c>
       <c r="F458" t="n">
         <v>5</v>
@@ -11224,13 +11200,13 @@
         <v>1042</v>
       </c>
       <c r="C459" t="n">
-        <v>687756</v>
+        <v>687759</v>
       </c>
       <c r="D459" t="n">
         <v>34</v>
       </c>
       <c r="E459" t="n">
-        <v>28589</v>
+        <v>28608</v>
       </c>
       <c r="F459" t="n">
         <v>3</v>
@@ -11247,13 +11223,13 @@
         <v>985</v>
       </c>
       <c r="C460" t="n">
-        <v>688741</v>
+        <v>688744</v>
       </c>
       <c r="D460" t="n">
         <v>31</v>
       </c>
       <c r="E460" t="n">
-        <v>28620</v>
+        <v>28639</v>
       </c>
       <c r="F460" t="n">
         <v>10</v>
@@ -11270,13 +11246,13 @@
         <v>625</v>
       </c>
       <c r="C461" t="n">
-        <v>689366</v>
+        <v>689369</v>
       </c>
       <c r="D461" t="n">
         <v>24</v>
       </c>
       <c r="E461" t="n">
-        <v>28644</v>
+        <v>28663</v>
       </c>
       <c r="F461" t="n">
         <v>5</v>
@@ -11293,13 +11269,13 @@
         <v>471</v>
       </c>
       <c r="C462" t="n">
-        <v>689837</v>
+        <v>689840</v>
       </c>
       <c r="D462" t="n">
         <v>30</v>
       </c>
       <c r="E462" t="n">
-        <v>28674</v>
+        <v>28693</v>
       </c>
       <c r="F462" t="n">
         <v>4</v>
@@ -11316,13 +11292,13 @@
         <v>580</v>
       </c>
       <c r="C463" t="n">
-        <v>690417</v>
+        <v>690420</v>
       </c>
       <c r="D463" t="n">
         <v>14</v>
       </c>
       <c r="E463" t="n">
-        <v>28688</v>
+        <v>28707</v>
       </c>
       <c r="F463" t="n">
         <v>4</v>
@@ -11339,13 +11315,13 @@
         <v>1147</v>
       </c>
       <c r="C464" t="n">
-        <v>691564</v>
+        <v>691567</v>
       </c>
       <c r="D464" t="n">
         <v>25</v>
       </c>
       <c r="E464" t="n">
-        <v>28713</v>
+        <v>28732</v>
       </c>
       <c r="F464" t="n">
         <v>4</v>
@@ -11362,13 +11338,13 @@
         <v>927</v>
       </c>
       <c r="C465" t="n">
-        <v>692491</v>
+        <v>692494</v>
       </c>
       <c r="D465" t="n">
         <v>25</v>
       </c>
       <c r="E465" t="n">
-        <v>28738</v>
+        <v>28757</v>
       </c>
       <c r="F465" t="n">
         <v>2</v>
@@ -11385,13 +11361,13 @@
         <v>851</v>
       </c>
       <c r="C466" t="n">
-        <v>693342</v>
+        <v>693345</v>
       </c>
       <c r="D466" t="n">
         <v>22</v>
       </c>
       <c r="E466" t="n">
-        <v>28760</v>
+        <v>28779</v>
       </c>
       <c r="F466" t="n">
         <v>3</v>
@@ -11408,13 +11384,13 @@
         <v>750</v>
       </c>
       <c r="C467" t="n">
-        <v>694092</v>
+        <v>694095</v>
       </c>
       <c r="D467" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E467" t="n">
-        <v>28782</v>
+        <v>28802</v>
       </c>
       <c r="F467" t="n">
         <v>2</v>
@@ -11431,13 +11407,13 @@
         <v>499</v>
       </c>
       <c r="C468" t="n">
-        <v>694591</v>
+        <v>694594</v>
       </c>
       <c r="D468" t="n">
         <v>18</v>
       </c>
       <c r="E468" t="n">
-        <v>28800</v>
+        <v>28820</v>
       </c>
       <c r="F468" t="n">
         <v>4</v>
@@ -11454,13 +11430,13 @@
         <v>359</v>
       </c>
       <c r="C469" t="n">
-        <v>694950</v>
+        <v>694953</v>
       </c>
       <c r="D469" t="n">
         <v>11</v>
       </c>
       <c r="E469" t="n">
-        <v>28811</v>
+        <v>28831</v>
       </c>
       <c r="F469" t="n">
         <v>0</v>
@@ -11477,13 +11453,13 @@
         <v>855</v>
       </c>
       <c r="C470" t="n">
-        <v>695805</v>
+        <v>695808</v>
       </c>
       <c r="D470" t="n">
         <v>19</v>
       </c>
       <c r="E470" t="n">
-        <v>28830</v>
+        <v>28850</v>
       </c>
       <c r="F470" t="n">
         <v>2</v>
@@ -11500,13 +11476,13 @@
         <v>655</v>
       </c>
       <c r="C471" t="n">
-        <v>696460</v>
+        <v>696463</v>
       </c>
       <c r="D471" t="n">
         <v>18</v>
       </c>
       <c r="E471" t="n">
-        <v>28848</v>
+        <v>28868</v>
       </c>
       <c r="F471" t="n">
         <v>1</v>
@@ -11523,13 +11499,13 @@
         <v>551</v>
       </c>
       <c r="C472" t="n">
-        <v>697011</v>
+        <v>697014</v>
       </c>
       <c r="D472" t="n">
         <v>11</v>
       </c>
       <c r="E472" t="n">
-        <v>28859</v>
+        <v>28879</v>
       </c>
       <c r="F472" t="n">
         <v>3</v>
@@ -11546,13 +11522,13 @@
         <v>472</v>
       </c>
       <c r="C473" t="n">
-        <v>697483</v>
+        <v>697486</v>
       </c>
       <c r="D473" t="n">
         <v>16</v>
       </c>
       <c r="E473" t="n">
-        <v>28875</v>
+        <v>28895</v>
       </c>
       <c r="F473" t="n">
         <v>6</v>
@@ -11569,13 +11545,13 @@
         <v>487</v>
       </c>
       <c r="C474" t="n">
-        <v>697970</v>
+        <v>697973</v>
       </c>
       <c r="D474" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E474" t="n">
-        <v>28893</v>
+        <v>28914</v>
       </c>
       <c r="F474" t="n">
         <v>5</v>
@@ -11592,13 +11568,13 @@
         <v>313</v>
       </c>
       <c r="C475" t="n">
-        <v>698283</v>
+        <v>698286</v>
       </c>
       <c r="D475" t="n">
         <v>13</v>
       </c>
       <c r="E475" t="n">
-        <v>28906</v>
+        <v>28927</v>
       </c>
       <c r="F475" t="n">
         <v>2</v>
@@ -11615,13 +11591,13 @@
         <v>187</v>
       </c>
       <c r="C476" t="n">
-        <v>698470</v>
+        <v>698473</v>
       </c>
       <c r="D476" t="n">
         <v>14</v>
       </c>
       <c r="E476" t="n">
-        <v>28920</v>
+        <v>28941</v>
       </c>
       <c r="F476" t="n">
         <v>6</v>
@@ -11638,13 +11614,13 @@
         <v>583</v>
       </c>
       <c r="C477" t="n">
-        <v>699053</v>
+        <v>699056</v>
       </c>
       <c r="D477" t="n">
         <v>17</v>
       </c>
       <c r="E477" t="n">
-        <v>28937</v>
+        <v>28958</v>
       </c>
       <c r="F477" t="n">
         <v>2</v>
@@ -11661,13 +11637,13 @@
         <v>418</v>
       </c>
       <c r="C478" t="n">
-        <v>699471</v>
+        <v>699474</v>
       </c>
       <c r="D478" t="n">
         <v>9</v>
       </c>
       <c r="E478" t="n">
-        <v>28946</v>
+        <v>28967</v>
       </c>
       <c r="F478" t="n">
         <v>2</v>
@@ -11684,13 +11660,13 @@
         <v>376</v>
       </c>
       <c r="C479" t="n">
-        <v>699847</v>
+        <v>699850</v>
       </c>
       <c r="D479" t="n">
         <v>12</v>
       </c>
       <c r="E479" t="n">
-        <v>28958</v>
+        <v>28979</v>
       </c>
       <c r="F479" t="n">
         <v>3</v>
@@ -11707,13 +11683,13 @@
         <v>307</v>
       </c>
       <c r="C480" t="n">
-        <v>700154</v>
+        <v>700157</v>
       </c>
       <c r="D480" t="n">
         <v>9</v>
       </c>
       <c r="E480" t="n">
-        <v>28967</v>
+        <v>28988</v>
       </c>
       <c r="F480" t="n">
         <v>3</v>
@@ -11730,13 +11706,13 @@
         <v>317</v>
       </c>
       <c r="C481" t="n">
-        <v>700471</v>
+        <v>700474</v>
       </c>
       <c r="D481" t="n">
         <v>8</v>
       </c>
       <c r="E481" t="n">
-        <v>28975</v>
+        <v>28996</v>
       </c>
       <c r="F481" t="n">
         <v>2</v>
@@ -11753,13 +11729,13 @@
         <v>194</v>
       </c>
       <c r="C482" t="n">
-        <v>700665</v>
+        <v>700668</v>
       </c>
       <c r="D482" t="n">
         <v>7</v>
       </c>
       <c r="E482" t="n">
-        <v>28982</v>
+        <v>29003</v>
       </c>
       <c r="F482" t="n">
         <v>2</v>
@@ -11776,13 +11752,13 @@
         <v>120</v>
       </c>
       <c r="C483" t="n">
-        <v>700785</v>
+        <v>700788</v>
       </c>
       <c r="D483" t="n">
         <v>6</v>
       </c>
       <c r="E483" t="n">
-        <v>28988</v>
+        <v>29009</v>
       </c>
       <c r="F483" t="n">
         <v>2</v>
@@ -11796,16 +11772,16 @@
         <v>44361</v>
       </c>
       <c r="B484" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C484" t="n">
-        <v>701105</v>
+        <v>701113</v>
       </c>
       <c r="D484" t="n">
         <v>11</v>
       </c>
       <c r="E484" t="n">
-        <v>28999</v>
+        <v>29020</v>
       </c>
       <c r="F484" t="n">
         <v>0</v>
@@ -11819,16 +11795,16 @@
         <v>44362</v>
       </c>
       <c r="B485" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C485" t="n">
-        <v>701331</v>
+        <v>701344</v>
       </c>
       <c r="D485" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E485" t="n">
-        <v>29005</v>
+        <v>29029</v>
       </c>
       <c r="F485" t="n">
         <v>1</v>
@@ -11842,22 +11818,22 @@
         <v>44363</v>
       </c>
       <c r="B486" t="n">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C486" t="n">
-        <v>701454</v>
+        <v>701529</v>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>29005</v>
+        <v>29030</v>
       </c>
       <c r="F486" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G486" t="n">
-        <v>10322</v>
+        <v>10323</v>
       </c>
     </row>
     <row r="487">
@@ -11865,22 +11841,45 @@
         <v>44364</v>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="C487" t="n">
-        <v>701454</v>
+        <v>701626</v>
       </c>
       <c r="D487" t="n">
         <v>0</v>
       </c>
       <c r="E487" t="n">
-        <v>29005</v>
+        <v>29030</v>
       </c>
       <c r="F487" t="n">
+        <v>1</v>
+      </c>
+      <c r="G487" t="n">
+        <v>10324</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+      <c r="C488" t="n">
+        <v>701627</v>
+      </c>
+      <c r="D488" t="n">
         <v>0</v>
       </c>
-      <c r="G487" t="n">
-        <v>10322</v>
+      <c r="E488" t="n">
+        <v>29030</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0</v>
+      </c>
+      <c r="G488" t="n">
+        <v>10324</v>
       </c>
     </row>
   </sheetData>
@@ -11970,22 +11969,22 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>7673</v>
+        <v>7680</v>
       </c>
       <c r="C8" t="n">
         <v>2.3</v>
       </c>
       <c r="D8" t="n">
-        <v>1703.5</v>
+        <v>1705.1</v>
       </c>
       <c r="E8" t="n">
-        <v>7143</v>
+        <v>7152</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1674.1</v>
+        <v>1676.2</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -11994,7 +11993,7 @@
         <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>14826</v>
+        <v>14842</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -12005,22 +12004,22 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>35185</v>
+        <v>35200</v>
       </c>
       <c r="C9" t="n">
         <v>10.5</v>
       </c>
       <c r="D9" t="n">
-        <v>8058.6</v>
+        <v>8062</v>
       </c>
       <c r="E9" t="n">
-        <v>34669</v>
+        <v>34681</v>
       </c>
       <c r="F9" t="n">
         <v>9.5</v>
       </c>
       <c r="G9" t="n">
-        <v>8425.9</v>
+        <v>8428.8</v>
       </c>
       <c r="H9" t="n">
         <v>26</v>
@@ -12029,7 +12028,7 @@
         <v>13.3</v>
       </c>
       <c r="J9" t="n">
-        <v>69880</v>
+        <v>69907</v>
       </c>
       <c r="K9" t="n">
         <v>10</v>
@@ -12040,22 +12039,22 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>57857</v>
+        <v>57868</v>
       </c>
       <c r="C10" t="n">
         <v>17.2</v>
       </c>
       <c r="D10" t="n">
-        <v>10771.6</v>
+        <v>10773.6</v>
       </c>
       <c r="E10" t="n">
-        <v>62634</v>
+        <v>62650</v>
       </c>
       <c r="F10" t="n">
         <v>17.2</v>
       </c>
       <c r="G10" t="n">
-        <v>12215.7</v>
+        <v>12218.9</v>
       </c>
       <c r="H10" t="n">
         <v>27</v>
@@ -12064,7 +12063,7 @@
         <v>13.8</v>
       </c>
       <c r="J10" t="n">
-        <v>120518</v>
+        <v>120545</v>
       </c>
       <c r="K10" t="n">
         <v>17.2</v>
@@ -12075,22 +12074,22 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>57354</v>
+        <v>57375</v>
       </c>
       <c r="C11" t="n">
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>9201</v>
+        <v>9204.3</v>
       </c>
       <c r="E11" t="n">
-        <v>61800</v>
+        <v>61812</v>
       </c>
       <c r="F11" t="n">
         <v>16.9</v>
       </c>
       <c r="G11" t="n">
-        <v>10117.9</v>
+        <v>10119.9</v>
       </c>
       <c r="H11" t="n">
         <v>43</v>
@@ -12099,7 +12098,7 @@
         <v>22.1</v>
       </c>
       <c r="J11" t="n">
-        <v>119197</v>
+        <v>119230</v>
       </c>
       <c r="K11" t="n">
         <v>17</v>
@@ -12110,22 +12109,22 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>53134</v>
+        <v>53145</v>
       </c>
       <c r="C12" t="n">
         <v>15.8</v>
       </c>
       <c r="D12" t="n">
-        <v>8778.2</v>
+        <v>8780.1</v>
       </c>
       <c r="E12" t="n">
-        <v>60120</v>
+        <v>60138</v>
       </c>
       <c r="F12" t="n">
         <v>16.5</v>
       </c>
       <c r="G12" t="n">
-        <v>10044.6</v>
+        <v>10047.6</v>
       </c>
       <c r="H12" t="n">
         <v>37</v>
@@ -12134,7 +12133,7 @@
         <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>113291</v>
+        <v>113320</v>
       </c>
       <c r="K12" t="n">
         <v>16.2</v>
@@ -12145,22 +12144,22 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>55870</v>
+        <v>55886</v>
       </c>
       <c r="C13" t="n">
         <v>16.6</v>
       </c>
       <c r="D13" t="n">
-        <v>8537.9</v>
+        <v>8540.3</v>
       </c>
       <c r="E13" t="n">
-        <v>59157</v>
+        <v>59169</v>
       </c>
       <c r="F13" t="n">
         <v>16.2</v>
       </c>
       <c r="G13" t="n">
-        <v>9178.3</v>
+        <v>9180.2</v>
       </c>
       <c r="H13" t="n">
         <v>29</v>
@@ -12169,7 +12168,7 @@
         <v>14.9</v>
       </c>
       <c r="J13" t="n">
-        <v>115056</v>
+        <v>115084</v>
       </c>
       <c r="K13" t="n">
         <v>16.4</v>
@@ -12180,22 +12179,22 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>33263</v>
+        <v>33271</v>
       </c>
       <c r="C14" t="n">
         <v>9.9</v>
       </c>
       <c r="D14" t="n">
-        <v>7099.7</v>
+        <v>7101.4</v>
       </c>
       <c r="E14" t="n">
-        <v>30953</v>
+        <v>30954</v>
       </c>
       <c r="F14" t="n">
         <v>8.5</v>
       </c>
       <c r="G14" t="n">
-        <v>6391.8</v>
+        <v>6392</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -12204,7 +12203,7 @@
         <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>64226</v>
+        <v>64235</v>
       </c>
       <c r="K14" t="n">
         <v>9.2</v>
@@ -12215,22 +12214,22 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>20248</v>
+        <v>20249</v>
       </c>
       <c r="C15" t="n">
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>5990.2</v>
+        <v>5990.5</v>
       </c>
       <c r="E15" t="n">
-        <v>19770</v>
+        <v>19771</v>
       </c>
       <c r="F15" t="n">
         <v>5.4</v>
       </c>
       <c r="G15" t="n">
-        <v>5110</v>
+        <v>5110.3</v>
       </c>
       <c r="H15" t="n">
         <v>7</v>
@@ -12239,7 +12238,7 @@
         <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>40025</v>
+        <v>40027</v>
       </c>
       <c r="K15" t="n">
         <v>5.7</v>
@@ -12259,13 +12258,13 @@
         <v>9149.1</v>
       </c>
       <c r="E16" t="n">
-        <v>28345</v>
+        <v>28347</v>
       </c>
       <c r="F16" t="n">
         <v>7.8</v>
       </c>
       <c r="G16" t="n">
-        <v>10093.3</v>
+        <v>10094</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -12274,7 +12273,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>44300</v>
+        <v>44302</v>
       </c>
       <c r="K16" t="n">
         <v>6.3</v>
@@ -12383,16 +12382,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>47557</v>
+        <v>47565</v>
       </c>
       <c r="C8" t="n">
-        <v>6934.1</v>
+        <v>6935.2</v>
       </c>
       <c r="E8" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -12400,10 +12399,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C9" t="n">
-        <v>7663.7</v>
+        <v>7669.9</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
@@ -12417,10 +12416,10 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>3896</v>
+        <v>3900</v>
       </c>
       <c r="C10" t="n">
-        <v>7026.8</v>
+        <v>7034</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
@@ -12434,16 +12433,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>65556</v>
+        <v>65566</v>
       </c>
       <c r="C11" t="n">
-        <v>6306.7</v>
+        <v>6307.6</v>
       </c>
       <c r="E11" t="n">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="F11" t="n">
-        <v>36.6</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="12">
@@ -12451,16 +12450,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>18178</v>
+        <v>18182</v>
       </c>
       <c r="C12" t="n">
-        <v>6279.8</v>
+        <v>6281.2</v>
       </c>
       <c r="E12" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F12" t="n">
-        <v>32.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -12468,16 +12467,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>13461</v>
+        <v>13463</v>
       </c>
       <c r="C13" t="n">
-        <v>6873.3</v>
+        <v>6874.3</v>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F13" t="n">
-        <v>44.9</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="14">
@@ -12491,10 +12490,10 @@
         <v>8049.7</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>25.8</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="15">
@@ -12502,16 +12501,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>32432</v>
+        <v>32440</v>
       </c>
       <c r="C15" t="n">
-        <v>10078.8</v>
+        <v>10081.3</v>
       </c>
       <c r="E15" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F15" t="n">
-        <v>72.1</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="16">
@@ -12519,16 +12518,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>63154</v>
+        <v>63169</v>
       </c>
       <c r="C16" t="n">
-        <v>12527.4</v>
+        <v>12530.3</v>
       </c>
       <c r="E16" t="n">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="F16" t="n">
-        <v>60.5</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="17">
@@ -12536,16 +12535,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="C17" t="n">
-        <v>6883.5</v>
+        <v>6890.9</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>59.1</v>
+        <v>64.1</v>
       </c>
     </row>
     <row r="18">
@@ -12553,10 +12552,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>13552</v>
+        <v>13567</v>
       </c>
       <c r="C18" t="n">
-        <v>6809.3</v>
+        <v>6816.9</v>
       </c>
       <c r="E18" t="n">
         <v>125</v>
@@ -12570,16 +12569,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>7328</v>
+        <v>7331</v>
       </c>
       <c r="C19" t="n">
-        <v>9958.7</v>
+        <v>9962.8</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" t="n">
-        <v>122.3</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="20">
@@ -12587,16 +12586,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>28862</v>
+        <v>28865</v>
       </c>
       <c r="C20" t="n">
-        <v>6986.3</v>
+        <v>6987.1</v>
       </c>
       <c r="E20" t="n">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F20" t="n">
-        <v>60.3</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="21">
@@ -12604,16 +12603,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>17628</v>
+        <v>17630</v>
       </c>
       <c r="C21" t="n">
-        <v>9987.8</v>
+        <v>9988.9</v>
       </c>
       <c r="E21" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F21" t="n">
-        <v>48.7</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="22">
@@ -12621,16 +12620,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="C22" t="n">
-        <v>6257.1</v>
+        <v>6259.4</v>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>83.6</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="23">
@@ -12638,16 +12637,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="C23" t="n">
-        <v>6475.1</v>
+        <v>6477.7</v>
       </c>
       <c r="E23" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F23" t="n">
-        <v>160.8</v>
+        <v>129.2</v>
       </c>
     </row>
     <row r="24">
@@ -12655,16 +12654,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>42710</v>
+        <v>42719</v>
       </c>
       <c r="C24" t="n">
-        <v>8362.5</v>
+        <v>8364.2</v>
       </c>
       <c r="E24" t="n">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="F24" t="n">
-        <v>80.9</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="25">
@@ -12672,16 +12671,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>4885</v>
+        <v>4888</v>
       </c>
       <c r="C25" t="n">
-        <v>5932.1</v>
+        <v>5935.8</v>
       </c>
       <c r="E25" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F25" t="n">
-        <v>74.1</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="26">
@@ -12689,16 +12688,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>17926</v>
+        <v>17937</v>
       </c>
       <c r="C26" t="n">
-        <v>6512.7</v>
+        <v>6516.7</v>
       </c>
       <c r="E26" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F26" t="n">
-        <v>32</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="27">
@@ -12706,16 +12705,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>12276</v>
+        <v>12285</v>
       </c>
       <c r="C27" t="n">
-        <v>7649.6</v>
+        <v>7655.2</v>
       </c>
       <c r="E27" t="n">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F27" t="n">
-        <v>135.8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
@@ -12723,16 +12722,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>18407</v>
+        <v>18414</v>
       </c>
       <c r="C28" t="n">
-        <v>6584.6</v>
+        <v>6587.1</v>
       </c>
       <c r="E28" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F28" t="n">
-        <v>48.3</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="29">
@@ -12740,16 +12739,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>33084</v>
+        <v>33088</v>
       </c>
       <c r="C29" t="n">
-        <v>9412.5</v>
+        <v>9413.6</v>
       </c>
       <c r="E29" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F29" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="30">
@@ -12757,10 +12756,10 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C30" t="n">
-        <v>8811.3</v>
+        <v>8814</v>
       </c>
       <c r="E30" t="n">
         <v>17</v>
@@ -12774,16 +12773,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>85209</v>
+        <v>85221</v>
       </c>
       <c r="C31" t="n">
-        <v>10583.7</v>
+        <v>10585.2</v>
       </c>
       <c r="E31" t="n">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="F31" t="n">
-        <v>54.2</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="32">
@@ -12791,16 +12790,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>38093</v>
+        <v>38100</v>
       </c>
       <c r="C32" t="n">
-        <v>11024.7</v>
+        <v>11026.7</v>
       </c>
       <c r="E32" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F32" t="n">
-        <v>44</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="33">
@@ -12808,16 +12807,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>8379</v>
+        <v>8382</v>
       </c>
       <c r="C33" t="n">
-        <v>6564.5</v>
+        <v>6566.8</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" t="n">
-        <v>47.8</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="34">
@@ -12825,16 +12824,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>113346</v>
+        <v>113373</v>
       </c>
       <c r="C34" t="n">
-        <v>7363.6</v>
+        <v>7365.4</v>
       </c>
       <c r="E34" t="n">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="F34" t="n">
-        <v>43.1</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="35">
@@ -12842,16 +12841,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>701454</v>
+        <v>701627</v>
       </c>
       <c r="C35" t="n">
-        <v>8114.2</v>
+        <v>8116.2</v>
       </c>
       <c r="E35" t="n">
-        <v>4443</v>
+        <v>4140</v>
       </c>
       <c r="F35" t="n">
-        <v>51.4</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="37">
@@ -13008,7 +13007,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C11" t="n">
         <v>432</v>
@@ -13017,13 +13016,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F11" t="n">
-        <v>77</v>
+        <v>77.1</v>
       </c>
       <c r="G11" t="n">
-        <v>83.1</v>
+        <v>83.3</v>
       </c>
       <c r="H11" t="n">
         <v>70.7</v>
@@ -13060,25 +13059,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="C13" t="n">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3893</v>
+        <v>3896</v>
       </c>
       <c r="F13" t="n">
-        <v>299.7</v>
+        <v>299.9</v>
       </c>
       <c r="G13" t="n">
-        <v>370.6</v>
+        <v>370.9</v>
       </c>
       <c r="H13" t="n">
-        <v>227.8</v>
+        <v>227.9</v>
       </c>
     </row>
     <row r="14">
@@ -13086,25 +13085,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>3337</v>
+        <v>3341</v>
       </c>
       <c r="C14" t="n">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="F14" t="n">
-        <v>553.6</v>
+        <v>554.2</v>
       </c>
       <c r="G14" t="n">
-        <v>712.3</v>
+        <v>713.1</v>
       </c>
       <c r="H14" t="n">
-        <v>399.6</v>
+        <v>399.8</v>
       </c>
     </row>
     <row r="15">
@@ -13112,25 +13111,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>4265</v>
+        <v>4267</v>
       </c>
       <c r="C15" t="n">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7172</v>
+        <v>7178</v>
       </c>
       <c r="F15" t="n">
-        <v>989.4</v>
+        <v>990.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1261.8</v>
+        <v>1262.4</v>
       </c>
       <c r="H15" t="n">
-        <v>751.4</v>
+        <v>752.4</v>
       </c>
     </row>
     <row r="16">
@@ -13138,25 +13137,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>4642</v>
+        <v>4645</v>
       </c>
       <c r="C16" t="n">
-        <v>4737</v>
+        <v>4744</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>9379</v>
+        <v>9389</v>
       </c>
       <c r="F16" t="n">
-        <v>2060.4</v>
+        <v>2062.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2662.2</v>
+        <v>2663.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1686.8</v>
+        <v>1689.3</v>
       </c>
     </row>
     <row r="17">
@@ -13411,7 +13410,7 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C14" t="n">
         <v>175</v>
@@ -13420,13 +13419,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F14" t="n">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="G14" t="n">
-        <v>109.5</v>
+        <v>109.7</v>
       </c>
       <c r="H14" t="n">
         <v>36.1</v>
@@ -13437,7 +13436,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C15" t="n">
         <v>698</v>
@@ -13446,13 +13445,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F15" t="n">
-        <v>288.3</v>
+        <v>288.5</v>
       </c>
       <c r="G15" t="n">
-        <v>411.8</v>
+        <v>412.1</v>
       </c>
       <c r="H15" t="n">
         <v>180.4</v>
@@ -13559,7 +13558,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
@@ -13571,13 +13570,13 @@
         <v>96</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>21.7250253337124</v>
+        <v>17.4966646982919</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>31.9314130743827</v>
+        <v>36.1597737098032</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>18.3714979332065</v>
+        <v>10.4979988189751</v>
       </c>
     </row>
     <row r="9">
@@ -13585,19 +13584,19 @@
         <v>42</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
       </c>
       <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
         <v>98</v>
       </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
       <c r="F9" s="2" t="n">
-        <v>124.007936507937</v>
+        <v>117.80753968254</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>117.80753968254</v>
@@ -13611,25 +13610,25 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>101</v>
       </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
       <c r="F10" s="2" t="n">
-        <v>19.839480566327</v>
+        <v>32.4646045630805</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>28.8574262782938</v>
+        <v>52.3040851294075</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>18.0358914239336</v>
+        <v>12.6251239967535</v>
       </c>
     </row>
     <row r="11">
@@ -13637,25 +13636,25 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
       <c r="F11" s="2" t="n">
-        <v>25.4936631411656</v>
+        <v>21.3569555371274</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>143.534133609883</v>
+        <v>104.091107617891</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>28.3797382137504</v>
+        <v>24.9164481266487</v>
       </c>
     </row>
     <row r="12">
@@ -13663,25 +13662,25 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
         <v>106</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>107</v>
       </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
       <c r="F12" s="2" t="n">
-        <v>15.2002984785883</v>
+        <v>13.818453162353</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>25.9095996794119</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45.6008954357649</v>
+        <v>40.0735141708237</v>
       </c>
     </row>
     <row r="13">
@@ -13689,77 +13688,65 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>54.1247115050755</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>30.6366291538163</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>86.8037826024795</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>33.5509845923555</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>7.7425349059282</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>41.2935194982837</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>34.1845280825898</v>
+        <v>35.4276018310476</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>59.3567714888605</v>
+        <v>45.3721918187101</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>50.6552552496558</v>
+        <v>45.3721918187101</v>
       </c>
     </row>
     <row r="16">
@@ -13767,25 +13754,25 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>68.0382759933985</v>
+        <v>71.8071600863273</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>39.474101815412</v>
+        <v>28.762536498667</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>98.3877110575092</v>
+        <v>101.363145867716</v>
       </c>
     </row>
     <row r="17">
@@ -13793,51 +13780,45 @@
         <v>50</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>39.4185760039419</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>96.0827790096083</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>24.6366100024637</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>30.1475723667352</v>
+        <v>34.1672486822999</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>59.7926851940248</v>
+        <v>69.3394164434909</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>46.2262776289939</v>
+        <v>39.6943036162013</v>
       </c>
     </row>
     <row r="19">
@@ -13845,22 +13826,22 @@
         <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>58.4366166557947</v>
+        <v>57.0776255707763</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>167.155903457273</v>
+        <v>156.283974777125</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0</v>
@@ -13871,25 +13852,25 @@
         <v>53</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>40.9082106893881</v>
+        <v>36.06700232378</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>58.3365608055771</v>
+        <v>44.7811773818745</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>33.646398140976</v>
+        <v>28.5631293570875</v>
       </c>
     </row>
     <row r="21">
@@ -13897,25 +13878,25 @@
         <v>54</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>27.196083763938</v>
+        <v>23.2299882150304</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>40.794125645907</v>
+        <v>29.4624240775995</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>39.0943704106609</v>
+        <v>35.6948599401686</v>
       </c>
     </row>
     <row r="22">
@@ -13923,77 +13904,65 @@
         <v>55</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>34.8132847494604</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>30.1715134495323</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>30.1715134495323</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>71.1837595570788</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>108.093857105194</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>21.0914843132085</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>33.2854284226231</v>
+        <v>31.719055320382</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>40.5299040204882</v>
+        <v>41.3130905716087</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>26.6283427380985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -14001,25 +13970,25 @@
         <v>58</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>32.7876815466071</v>
+        <v>36.4307572740079</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>47.3599844562102</v>
+        <v>30.3589643950066</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>17.0010200612037</v>
+        <v>25.5015300918055</v>
       </c>
     </row>
     <row r="26">
@@ -14027,25 +13996,25 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>23.2518428902041</v>
+        <v>23.9784629805229</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>41.7806551933354</v>
+        <v>47.5936159158865</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>38.5108647869005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -14053,25 +14022,25 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>78.5144566301097</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>109.047856430708</v>
+        <v>64.8055832502493</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>48.6041874376869</v>
+        <v>49.8504486540379</v>
       </c>
     </row>
     <row r="28">
@@ -14079,25 +14048,25 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>31.1217791641477</v>
+        <v>25.7559551703291</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>72.6174847163447</v>
+        <v>71.9020415171689</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>25.3982335707412</v>
+        <v>26.113676769917</v>
       </c>
     </row>
     <row r="29">
@@ -14105,25 +14074,25 @@
         <v>62</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>14.2251152945595</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>24.1826960007511</v>
+        <v>23.0446867771863</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>27.027719059663</v>
+        <v>25.8897098360982</v>
       </c>
     </row>
     <row r="30">
@@ -14131,45 +14100,51 @@
         <v>63</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>13.6228646159714</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>38.1440209247201</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>38.1440209247201</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>36.6415020283245</v>
+        <v>35.1510002509011</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>52.6643961356257</v>
+        <v>51.5465198025582</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>82.5986401655451</v>
+        <v>72.7861701308412</v>
       </c>
     </row>
     <row r="32">
@@ -14177,25 +14152,25 @@
         <v>65</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>28.3626365675421</v>
+        <v>22.8637580493452</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>39.360393603936</v>
+        <v>47.7534187106577</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>64.8288835829535</v>
+        <v>56.7252731350843</v>
       </c>
     </row>
     <row r="33">
@@ -14203,48 +14178,42 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>28.2038827345231</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>39.1720593535043</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>136.318766550195</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>24.2971528804145</v>
+        <v>22.3481833980283</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>63.3415081775511</v>
+        <v>58.4041188221728</v>
       </c>
       <c r="H34" s="2"/>
     </row>
